--- a/data/trans_orig/P15D$nada-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P15D$nada-Provincia-trans_orig.xlsx
@@ -747,16 +747,16 @@
         <v>947</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6775</v>
+        <v>6475</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3927486386220593</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1018476507200319</v>
+        <v>0.1019266598760447</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7289293554685344</v>
+        <v>0.6967093515388746</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -778,19 +778,19 @@
         <v>3650</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>903</v>
+        <v>864</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7747</v>
+        <v>7996</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2228187002485323</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0551232617950681</v>
+        <v>0.05272161153555717</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4729189051115071</v>
+        <v>0.4881472817963665</v>
       </c>
     </row>
     <row r="5">
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3785</v>
+        <v>3788</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1003868914983788</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4071994171138264</v>
+        <v>0.4075223090046234</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5957</v>
+        <v>5831</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3126232946543949</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8403850112587483</v>
+        <v>0.8226370479946479</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>3</v>
@@ -849,19 +849,19 @@
         <v>3149</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>7348</v>
+        <v>7196</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1922148836601197</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0561682452981198</v>
+        <v>0.05624962111954971</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4485689869976063</v>
+        <v>0.4392756549328236</v>
       </c>
     </row>
     <row r="6">
@@ -881,16 +881,16 @@
         <v>866</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6456</v>
+        <v>6429</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3026423649579532</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09320788176034313</v>
+        <v>0.0932022856118786</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6946154716492494</v>
+        <v>0.6917026891585651</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>4</v>
@@ -899,7 +899,7 @@
         <v>4872</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1131</v>
+        <v>1257</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>7088</v>
@@ -908,7 +908,7 @@
         <v>0.687376705345605</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1596149887412512</v>
+        <v>0.1773629520053522</v>
       </c>
       <c r="P6" s="6" t="n">
         <v>1</v>
@@ -920,19 +920,19 @@
         <v>7684</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>3668</v>
+        <v>3897</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>11674</v>
+        <v>11985</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4691047694659067</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2239226039264381</v>
+        <v>0.2378988640467074</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7126674268954942</v>
+        <v>0.7316597150256002</v>
       </c>
     </row>
     <row r="7">
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5195</v>
+        <v>4784</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2042221049216087</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5589233081545397</v>
+        <v>0.5147435053414918</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>5912</v>
+        <v>6212</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1158616466254414</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3608832191577876</v>
+        <v>0.3792286392772248</v>
       </c>
     </row>
     <row r="8">
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4534</v>
+        <v>4249</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1325258958286501</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5774617724842069</v>
+        <v>0.5411154805824238</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>4041</v>
+        <v>4736</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1094151395549342</v>
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4507927013027081</v>
+        <v>0.5282846213275815</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2</v>
@@ -1061,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>5342</v>
+        <v>6205</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1202066146009106</v>
@@ -1070,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3176732594251763</v>
+        <v>0.3690415035789211</v>
       </c>
     </row>
     <row r="9">
@@ -1090,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4544</v>
+        <v>4539</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1325258958286501</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5787424481866136</v>
+        <v>0.5780431521995217</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -1124,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>5397</v>
+        <v>4391</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.06188243607618637</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3209661853202495</v>
+        <v>0.2611558055873419</v>
       </c>
     </row>
     <row r="10">
@@ -1150,19 +1150,19 @@
         <v>2956</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>705</v>
+        <v>792</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6040</v>
+        <v>6010</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3765008327196759</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08972520268577111</v>
+        <v>0.1008932945023369</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7692160123917919</v>
+        <v>0.7654420790204497</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -1171,7 +1171,7 @@
         <v>7007</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3819</v>
+        <v>3921</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>8964</v>
@@ -1180,7 +1180,7 @@
         <v>0.7816748199096063</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4260776786058895</v>
+        <v>0.4373735252369372</v>
       </c>
       <c r="P10" s="6" t="n">
         <v>1</v>
@@ -1192,19 +1192,19 @@
         <v>9963</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5407</v>
+        <v>5522</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>13669</v>
+        <v>13695</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5924804499697656</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3215429164782773</v>
+        <v>0.3284093169116021</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8128768312686622</v>
+        <v>0.814437362848034</v>
       </c>
     </row>
     <row r="11">
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6249</v>
+        <v>6154</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.358447375623024</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7958132219495999</v>
+        <v>0.7837095082570289</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -1245,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5020</v>
+        <v>4123</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1089100405354594</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5599680026045764</v>
+        <v>0.4599414838400199</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>3</v>
@@ -1263,19 +1263,19 @@
         <v>3791</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1025</v>
+        <v>1036</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>8829</v>
+        <v>8725</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2254304993531375</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.06094046926236967</v>
+        <v>0.0616197422790622</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.52504135628794</v>
+        <v>0.5189043507524923</v>
       </c>
     </row>
     <row r="12">
@@ -1296,19 +1296,19 @@
         <v>3525</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>903</v>
+        <v>948</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8604</v>
+        <v>8855</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1933678865091114</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04951434193832668</v>
+        <v>0.05202760827306233</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4720224954406128</v>
+        <v>0.4857645589663712</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2</v>
@@ -1338,19 +1338,19 @@
         <v>5442</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1983</v>
+        <v>1896</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>10781</v>
+        <v>10792</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2425661965067078</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08837483817713508</v>
+        <v>0.08453678375313529</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4805595418540675</v>
+        <v>0.4810374219641772</v>
       </c>
     </row>
     <row r="13">
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7183</v>
+        <v>5828</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1057954556351505</v>
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3940584284813468</v>
+        <v>0.3197175086638304</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>0</v>
@@ -1404,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>6226</v>
+        <v>6143</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08596642391224925</v>
@@ -1413,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2775152181654761</v>
+        <v>0.2738340949702299</v>
       </c>
     </row>
     <row r="14">
@@ -1430,19 +1430,19 @@
         <v>11873</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6825</v>
+        <v>6789</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>15495</v>
+        <v>15617</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6513250029156368</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3743807020061822</v>
+        <v>0.3724034668409633</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8499986110470713</v>
+        <v>0.8567051047254899</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1</v>
@@ -1472,19 +1472,19 @@
         <v>13000</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>7318</v>
+        <v>7929</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>17365</v>
+        <v>17908</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5794901576369841</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3262051550964515</v>
+        <v>0.3534485145683542</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7740457827339049</v>
+        <v>0.7982440381342377</v>
       </c>
     </row>
     <row r="15">
@@ -1504,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4840</v>
+        <v>3997</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.04951165494010128</v>
@@ -1513,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2655017271402548</v>
+        <v>0.2192751425775779</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>3325</v>
+        <v>4205</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2760816696927609</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.790831689717164</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>2</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>7506</v>
+        <v>6999</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.09197722194405877</v>
@@ -1555,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3345596693406248</v>
+        <v>0.3119919896166033</v>
       </c>
     </row>
     <row r="16">
@@ -1576,19 +1576,19 @@
         <v>4683</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1804</v>
+        <v>1878</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8982</v>
+        <v>9711</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2628107906093169</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1012536400504737</v>
+        <v>0.1054175398023665</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5041232044243737</v>
+        <v>0.544983284233466</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -1597,19 +1597,19 @@
         <v>4966</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1787</v>
+        <v>1796</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8360</v>
+        <v>8211</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5070916446520716</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1824720409161627</v>
+        <v>0.183417885263181</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8536794565131801</v>
+        <v>0.8384672092475327</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>10</v>
@@ -1618,19 +1618,19 @@
         <v>9649</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5366</v>
+        <v>5112</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>14837</v>
+        <v>14715</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.349451549837503</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1943357462677406</v>
+        <v>0.1851383835305837</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5373713438718134</v>
+        <v>0.5329339853860463</v>
       </c>
     </row>
     <row r="17">
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5482</v>
+        <v>6781</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1078714286245126</v>
@@ -1659,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3076921838283364</v>
+        <v>0.3805935419674275</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -1671,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4064</v>
+        <v>4339</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0973393830701229</v>
@@ -1680,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4149740267130831</v>
+        <v>0.4430404255274344</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3</v>
@@ -1689,19 +1689,19 @@
         <v>2875</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>923</v>
+        <v>887</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7368</v>
+        <v>7175</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.104135956081509</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03344241052596277</v>
+        <v>0.03212843411041418</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2668331362283042</v>
+        <v>0.2598771397199539</v>
       </c>
     </row>
     <row r="18">
@@ -1718,19 +1718,19 @@
         <v>11213</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7206</v>
+        <v>6555</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>14802</v>
+        <v>14284</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.6293177807661705</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4044130207526057</v>
+        <v>0.3678935522864424</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8307159138741955</v>
+        <v>0.8016680623900088</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>4</v>
@@ -1739,19 +1739,19 @@
         <v>3874</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>987</v>
+        <v>916</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>7056</v>
+        <v>7058</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3955689722778056</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1008199227721217</v>
+        <v>0.09355117570546211</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7205327665063623</v>
+        <v>0.7206776707125556</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>17</v>
@@ -1760,19 +1760,19 @@
         <v>15087</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>9722</v>
+        <v>9696</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>19704</v>
+        <v>19789</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5464124940809879</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3521211532533151</v>
+        <v>0.3511499401256531</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7136219608440619</v>
+        <v>0.7166951910689145</v>
       </c>
     </row>
     <row r="19">
@@ -1843,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5091</v>
+        <v>4924</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.199027668760908</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6955965476905316</v>
+        <v>0.6727665837721236</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -1877,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6740</v>
+        <v>6581</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.09630630570500956</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4456487385050456</v>
+        <v>0.43509983702347</v>
       </c>
     </row>
     <row r="21">
@@ -1903,19 +1903,19 @@
         <v>3114</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>841</v>
+        <v>850</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>5976</v>
+        <v>6359</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4254508244727574</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1149396466734741</v>
+        <v>0.1161109176218742</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8164368504678912</v>
+        <v>0.8687665233697418</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1</v>
@@ -1927,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>5381</v>
+        <v>5368</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2123742608803562</v>
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6893381610008833</v>
+        <v>0.687694025562178</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>4</v>
@@ -1945,19 +1945,19 @@
         <v>4772</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1232</v>
+        <v>1090</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>9278</v>
+        <v>9183</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3154786020991348</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.08144535869715047</v>
+        <v>0.07203923154494393</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6134480433478295</v>
+        <v>0.6071714575431085</v>
       </c>
     </row>
     <row r="22">
@@ -1974,19 +1974,19 @@
         <v>2748</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6015</v>
+        <v>5768</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3755215067663346</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1080002718504218</v>
+        <v>0.107365870913588</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8217791119297585</v>
+        <v>0.7881410641878834</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>6</v>
@@ -1995,7 +1995,7 @@
         <v>6148</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2425</v>
+        <v>2438</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>7806</v>
@@ -2004,7 +2004,7 @@
         <v>0.7876257391196437</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3106618389991166</v>
+        <v>0.312305974437822</v>
       </c>
       <c r="P22" s="6" t="n">
         <v>1</v>
@@ -2016,19 +2016,19 @@
         <v>8897</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4486</v>
+        <v>4549</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>12595</v>
+        <v>12622</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5882150921958557</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.296587973161727</v>
+        <v>0.3007572068076935</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8327334993784521</v>
+        <v>0.8345050757916926</v>
       </c>
     </row>
     <row r="23">
@@ -2096,19 +2096,19 @@
         <v>3118</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6669</v>
+        <v>6743</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3505605923975469</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.101401246753078</v>
+        <v>0.1014979657098683</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.7499289476167663</v>
+        <v>0.7582832740697952</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>3</v>
@@ -2117,19 +2117,19 @@
         <v>2852</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>6945</v>
+        <v>6108</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2689604271737381</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0794601437488431</v>
+        <v>0.07951586110668937</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6550389026641052</v>
+        <v>0.5761495148267541</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>6</v>
@@ -2138,19 +2138,19 @@
         <v>5969</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2668</v>
+        <v>2745</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>10673</v>
+        <v>10806</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3061828995383082</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.136851062642551</v>
+        <v>0.1408298082797305</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5474910720979465</v>
+        <v>0.554303562153399</v>
       </c>
     </row>
     <row r="25">
@@ -2214,19 +2214,19 @@
         <v>2887</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>723</v>
+        <v>767</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>6513</v>
+        <v>6504</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3246577503530331</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.08133772022766031</v>
+        <v>0.08629916896098969</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7323461838854886</v>
+        <v>0.7313218892166367</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>6</v>
@@ -2235,19 +2235,19 @@
         <v>6729</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3442</v>
+        <v>3420</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>9627</v>
+        <v>9625</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6347135079567314</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3246512391568205</v>
+        <v>0.3226248436990029</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9080522840296096</v>
+        <v>0.9078749371558028</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>9</v>
@@ -2256,19 +2256,19 @@
         <v>9616</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5131</v>
+        <v>5026</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>13841</v>
+        <v>14212</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4932794577041945</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.263200479042392</v>
+        <v>0.257813566412632</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7099841613129196</v>
+        <v>0.7290085014818423</v>
       </c>
     </row>
     <row r="27">
@@ -2288,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>6426</v>
+        <v>6477</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3247816572494199</v>
@@ -2297,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7226455862177185</v>
+        <v>0.7283272760448698</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1</v>
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>4328</v>
+        <v>4251</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.09632606486953042</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4082252893456667</v>
+        <v>0.4009194827088685</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>3</v>
@@ -2327,19 +2327,19 @@
         <v>3909</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>9409</v>
+        <v>9018</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2005376427574973</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.05427370449323055</v>
+        <v>0.05434681390564518</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.4826477094525299</v>
+        <v>0.4625766590031824</v>
       </c>
     </row>
     <row r="28">
@@ -2360,19 +2360,19 @@
         <v>9255</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>4296</v>
+        <v>4876</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>14715</v>
+        <v>14791</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3392110431291049</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1574532620817408</v>
+        <v>0.1787224479986197</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5393184812331602</v>
+        <v>0.5421208863429836</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>4</v>
@@ -2381,19 +2381,19 @@
         <v>3979</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1025</v>
+        <v>1009</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>8192</v>
+        <v>9029</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2160892690286679</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.05566306323486908</v>
+        <v>0.05480679496459736</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4448342309192907</v>
+        <v>0.4903189721702518</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>13</v>
@@ -2402,19 +2402,19 @@
         <v>13235</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>7630</v>
+        <v>7986</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>20087</v>
+        <v>19588</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.289596868222305</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1669590868992671</v>
+        <v>0.1747558466873253</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4395355798155912</v>
+        <v>0.4286266672774574</v>
       </c>
     </row>
     <row r="29">
@@ -2431,19 +2431,19 @@
         <v>5501</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1976</v>
+        <v>1956</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>10866</v>
+        <v>11456</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2016082783631398</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.07243835444422281</v>
+        <v>0.07170054506213179</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3982472602325446</v>
+        <v>0.419897984992928</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2</v>
@@ -2455,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>6552</v>
+        <v>6297</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1073123846765915</v>
@@ -2464,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3557767980227913</v>
+        <v>0.3419601641252027</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7</v>
@@ -2473,19 +2473,19 @@
         <v>7477</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3419</v>
+        <v>2899</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>13768</v>
+        <v>14115</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1636100201627586</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.07482235177584134</v>
+        <v>0.06344450572852069</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3012757126103002</v>
+        <v>0.3088581180672517</v>
       </c>
     </row>
     <row r="30">
@@ -2502,19 +2502,19 @@
         <v>7251</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2864</v>
+        <v>3340</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>12924</v>
+        <v>13376</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.265758560841756</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1049802463239487</v>
+        <v>0.1224252245770835</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4736809427455868</v>
+        <v>0.4902435306173729</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>12</v>
@@ -2523,19 +2523,19 @@
         <v>12460</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>7717</v>
+        <v>7685</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>15766</v>
+        <v>15602</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.6765983462947406</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4190456084248869</v>
+        <v>0.4173004627070804</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.8561617079116782</v>
+        <v>0.8472260404148114</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>19</v>
@@ -2544,19 +2544,19 @@
         <v>19711</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>13571</v>
+        <v>13832</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>26842</v>
+        <v>27173</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.4313139804502213</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2969687304289099</v>
+        <v>0.3026630239602501</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5873428479104357</v>
+        <v>0.5945915450892693</v>
       </c>
     </row>
     <row r="31">
@@ -2573,19 +2573,19 @@
         <v>5277</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>2085</v>
+        <v>1786</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>11709</v>
+        <v>10540</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1934221176659993</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.0764253137092214</v>
+        <v>0.06545401562551555</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4291450820172873</v>
+        <v>0.3863226457747292</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>0</v>
@@ -2607,19 +2607,19 @@
         <v>5277</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1845</v>
+        <v>1792</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>11254</v>
+        <v>10804</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1154791311647151</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.04037961064408896</v>
+        <v>0.03921169528264817</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2462637306353601</v>
+        <v>0.2364218392220996</v>
       </c>
     </row>
     <row r="32">
@@ -2640,19 +2640,19 @@
         <v>5960</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2041</v>
+        <v>2113</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>10953</v>
+        <v>11481</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2258480041142293</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0773358236709084</v>
+        <v>0.08008210468943058</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.415044230676982</v>
+        <v>0.4350775731410149</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1</v>
@@ -2664,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>5120</v>
+        <v>4528</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.03778489333841711</v>
@@ -2673,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1900900973475979</v>
+        <v>0.168124139716441</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>7</v>
@@ -2682,19 +2682,19 @@
         <v>6978</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>3184</v>
+        <v>3050</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>12649</v>
+        <v>12674</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1308566442200395</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.05970666638474502</v>
+        <v>0.05719916286261637</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2372245421849036</v>
+        <v>0.2376806659071542</v>
       </c>
     </row>
     <row r="33">
@@ -2714,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>6477</v>
+        <v>6460</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.07319199594128087</v>
@@ -2723,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2454318228499651</v>
+        <v>0.2448039662442154</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>5</v>
@@ -2732,19 +2732,19 @@
         <v>5353</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>2112</v>
+        <v>2141</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>10657</v>
+        <v>10879</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.198745214876193</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.07839980867873338</v>
+        <v>0.07947671235421537</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.3956902050628147</v>
+        <v>0.4039365089474837</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>7</v>
@@ -2753,19 +2753,19 @@
         <v>7284</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>3194</v>
+        <v>3095</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>13988</v>
+        <v>13235</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1366093825649534</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.05989137227097142</v>
+        <v>0.058045531669879</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2623333720240584</v>
+        <v>0.2482103472766612</v>
       </c>
     </row>
     <row r="34">
@@ -2782,19 +2782,19 @@
         <v>15164</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>10193</v>
+        <v>9835</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>20337</v>
+        <v>20195</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.5746151172947392</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.3862645146845504</v>
+        <v>0.3726840581465029</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.7706631840831557</v>
+        <v>0.7652901318169297</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>18</v>
@@ -2803,19 +2803,19 @@
         <v>18661</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>13421</v>
+        <v>13202</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>23054</v>
+        <v>22776</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.6928495323479091</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.4983027136954748</v>
+        <v>0.4901827544528847</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.8559690534601263</v>
+        <v>0.8456538197531968</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>32</v>
@@ -2824,19 +2824,19 @@
         <v>33824</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>26336</v>
+        <v>27214</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>39923</v>
+        <v>40651</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.6343357495115662</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.493907652131534</v>
+        <v>0.5103742454091957</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.7487126846677381</v>
+        <v>0.762370837305697</v>
       </c>
     </row>
     <row r="35">
@@ -2853,19 +2853,19 @@
         <v>3334</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1049</v>
+        <v>1011</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>7625</v>
+        <v>8336</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1263448826497506</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.0397659260882433</v>
+        <v>0.03830168762040616</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2889418711667247</v>
+        <v>0.3158743312556281</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>2</v>
@@ -2877,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>6141</v>
+        <v>6349</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.07062035943748085</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2280012044221117</v>
+        <v>0.2357309052442481</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>5</v>
@@ -2895,19 +2895,19 @@
         <v>5236</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1842</v>
+        <v>1891</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>10965</v>
+        <v>12241</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.09819822370344085</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.03455100710374608</v>
+        <v>0.03545902972366292</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2056371546645908</v>
+        <v>0.2295709649430664</v>
       </c>
     </row>
     <row r="36">
@@ -2928,19 +2928,19 @@
         <v>32687</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>23870</v>
+        <v>22342</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>44343</v>
+        <v>41874</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2655842378328501</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1939422300684575</v>
+        <v>0.1815320839086485</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3602895246098741</v>
+        <v>0.3402234738514942</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>16</v>
@@ -2949,19 +2949,19 @@
         <v>15712</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>9469</v>
+        <v>9535</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>24252</v>
+        <v>23456</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1674949376004987</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1009434212621744</v>
+        <v>0.1016480972577548</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2585302242957889</v>
+        <v>0.2500440193789143</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>48</v>
@@ -2970,19 +2970,19 @@
         <v>48399</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>38043</v>
+        <v>36557</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>61297</v>
+        <v>61021</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2231587757473505</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1754096104823861</v>
+        <v>0.1685577535267469</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2826283477042482</v>
+        <v>0.2813563759259844</v>
       </c>
     </row>
     <row r="37">
@@ -2999,19 +2999,19 @@
         <v>16370</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>10495</v>
+        <v>9699</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>25038</v>
+        <v>25442</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1330071281393734</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.08526873387440979</v>
+        <v>0.07880360437150107</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2034343881279127</v>
+        <v>0.2067123141464683</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>11</v>
@@ -3020,19 +3020,19 @@
         <v>12156</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>6299</v>
+        <v>6377</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>19814</v>
+        <v>20748</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1295856803154422</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.06715339164223137</v>
+        <v>0.06798481995835218</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2112228102569922</v>
+        <v>0.2211794543443237</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>27</v>
@@ -3041,19 +3041,19 @@
         <v>28526</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>19627</v>
+        <v>19527</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>40792</v>
+        <v>40520</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1315272877838212</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.09049492133818282</v>
+        <v>0.09003559529541018</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1880831027163374</v>
+        <v>0.186830918338989</v>
       </c>
     </row>
     <row r="38">
@@ -3070,19 +3070,19 @@
         <v>56905</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>46381</v>
+        <v>45687</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>67789</v>
+        <v>68168</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.4623522388270693</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.3768428770374856</v>
+        <v>0.371205066504221</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.5507816396693321</v>
+        <v>0.5538676501407658</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>58</v>
@@ -3091,19 +3091,19 @@
         <v>60878</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>51383</v>
+        <v>51054</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>69882</v>
+        <v>69735</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.6489744523220928</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.5477534266758802</v>
+        <v>0.5442485278049736</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.7449623015142078</v>
+        <v>0.7433971074985669</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>114</v>
@@ -3112,19 +3112,19 @@
         <v>117783</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>101883</v>
+        <v>102998</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>132693</v>
+        <v>133496</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.5430698463968071</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.4697622848356307</v>
+        <v>0.474900059923738</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.6118178842034363</v>
+        <v>0.615520220945219</v>
       </c>
     </row>
     <row r="39">
@@ -3141,19 +3141,19 @@
         <v>17115</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>10032</v>
+        <v>10059</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>25984</v>
+        <v>26532</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.1390563952007072</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.08150827468456871</v>
+        <v>0.08172693928123792</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2111226384653651</v>
+        <v>0.215573056269215</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>5</v>
@@ -3162,19 +3162,19 @@
         <v>5060</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>1914</v>
+        <v>1847</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>11465</v>
+        <v>10958</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.05394492976196631</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.02040711089419837</v>
+        <v>0.01968920605883851</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.122219228497166</v>
+        <v>0.1168116804212149</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>20</v>
@@ -3183,19 +3183,19 @@
         <v>22175</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>13820</v>
+        <v>13558</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>32734</v>
+        <v>32558</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.1022440900720212</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.06372169424785272</v>
+        <v>0.06251196491602909</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.1509301942085568</v>
+        <v>0.1501177379075172</v>
       </c>
     </row>
     <row r="40">
@@ -3460,19 +3460,19 @@
         <v>5593</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2566</v>
+        <v>2550</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11304</v>
+        <v>10784</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1510029111236589</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06929301099185056</v>
+        <v>0.06883757776789994</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3052191620095536</v>
+        <v>0.2911786333910872</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -3481,19 +3481,19 @@
         <v>6238</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2468</v>
+        <v>2368</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11272</v>
+        <v>11393</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.225843139090726</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08934814413099387</v>
+        <v>0.08573105977717986</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4080554966748763</v>
+        <v>0.4124562166582139</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -3502,19 +3502,19 @@
         <v>11831</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6539</v>
+        <v>6892</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19420</v>
+        <v>19376</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1829754468247475</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1011271715580873</v>
+        <v>0.1065951957787654</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3003443844623142</v>
+        <v>0.2996616798864449</v>
       </c>
     </row>
     <row r="5">
@@ -3531,19 +3531,19 @@
         <v>5042</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1442</v>
+        <v>1413</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11384</v>
+        <v>12490</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1361352698939642</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03893104854611651</v>
+        <v>0.03816167878067634</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3073695316970066</v>
+        <v>0.3372308887301025</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -3565,19 +3565,19 @@
         <v>5042</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1387</v>
+        <v>1790</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>12058</v>
+        <v>13604</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07797684500544787</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0214539527291064</v>
+        <v>0.02769068899129017</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1864757488150979</v>
+        <v>0.2103890508636369</v>
       </c>
     </row>
     <row r="6">
@@ -3594,19 +3594,19 @@
         <v>21727</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15554</v>
+        <v>14638</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>27584</v>
+        <v>26755</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5866258424821545</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4199539587472647</v>
+        <v>0.3952351104701891</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7447640650885283</v>
+        <v>0.7223789586148335</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>17</v>
@@ -3615,19 +3615,19 @@
         <v>19298</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>13707</v>
+        <v>14210</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>23501</v>
+        <v>23546</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6986201141219603</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4962334158071534</v>
+        <v>0.514422139432813</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8507832655052445</v>
+        <v>0.8524143326892771</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>38</v>
@@ -3636,19 +3636,19 @@
         <v>41025</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>32593</v>
+        <v>32739</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>48841</v>
+        <v>48453</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6344709779873108</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5040681228462301</v>
+        <v>0.5063297928501863</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7553484060384147</v>
+        <v>0.7493532242181409</v>
       </c>
     </row>
     <row r="7">
@@ -3665,19 +3665,19 @@
         <v>4675</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1736</v>
+        <v>1639</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10274</v>
+        <v>9991</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1262359765002224</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04688470673444427</v>
+        <v>0.04424921346828204</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2774060317257286</v>
+        <v>0.2697555410975774</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -3689,7 +3689,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6592</v>
+        <v>6414</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07553674678731365</v>
@@ -3698,7 +3698,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2386455070335618</v>
+        <v>0.2321855615911314</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>7</v>
@@ -3707,19 +3707,19 @@
         <v>6762</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2906</v>
+        <v>2738</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>12488</v>
+        <v>12483</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1045767301824938</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04493680462585775</v>
+        <v>0.04234049844737705</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1931299073024024</v>
+        <v>0.1930560273041435</v>
       </c>
     </row>
     <row r="8">
@@ -3740,19 +3740,19 @@
         <v>3028</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>948</v>
+        <v>935</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8011</v>
+        <v>8043</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.09743259076106961</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03050900806273025</v>
+        <v>0.03007498309992479</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.25773422651767</v>
+        <v>0.2587756215378799</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -3761,19 +3761,19 @@
         <v>5008</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1839</v>
+        <v>1152</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>11785</v>
+        <v>11139</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1655280602598902</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.06078176860226597</v>
+        <v>0.03806670247322928</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3894984539405223</v>
+        <v>0.3681443289631972</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>7</v>
@@ -3782,19 +3782,19 @@
         <v>8037</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2948</v>
+        <v>3136</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>14207</v>
+        <v>14689</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1310224529993646</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.04806596607088606</v>
+        <v>0.051121447061712</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2316211169942236</v>
+        <v>0.2394727189454401</v>
       </c>
     </row>
     <row r="9">
@@ -3814,7 +3814,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7285</v>
+        <v>6683</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.06353344732869602</v>
@@ -3823,7 +3823,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2343783084487256</v>
+        <v>0.2150326669901041</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>2</v>
@@ -3835,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>6629</v>
+        <v>7219</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.07102975710729882</v>
@@ -3844,7 +3844,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2190987397410321</v>
+        <v>0.2385922743717874</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>4</v>
@@ -3853,19 +3853,19 @@
         <v>4124</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1124</v>
+        <v>1071</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>9559</v>
+        <v>9743</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.06723119718800513</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01831827542983381</v>
+        <v>0.01746272618072634</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1558339087062708</v>
+        <v>0.1588414361341682</v>
       </c>
     </row>
     <row r="10">
@@ -3882,19 +3882,19 @@
         <v>20716</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14621</v>
+        <v>14911</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>25592</v>
+        <v>25705</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6665210159259444</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4704003387408788</v>
+        <v>0.4797556896604461</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8233831980421337</v>
+        <v>0.8270191802913195</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -3903,19 +3903,19 @@
         <v>19997</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14258</v>
+        <v>14034</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>24841</v>
+        <v>24928</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6609313577075527</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4712294066205357</v>
+        <v>0.4638431652891757</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.821043103513682</v>
+        <v>0.8239015408065682</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>39</v>
@@ -3924,19 +3924,19 @@
         <v>40714</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>33804</v>
+        <v>32650</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>48563</v>
+        <v>47366</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6637637715615717</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5511176391719189</v>
+        <v>0.5322892854376531</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7917359484384037</v>
+        <v>0.7722087802444088</v>
       </c>
     </row>
     <row r="11">
@@ -3953,19 +3953,19 @@
         <v>5362</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2025</v>
+        <v>1968</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>11260</v>
+        <v>10878</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.17251294598429</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.06515599493815437</v>
+        <v>0.06330989398552252</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3622906590324321</v>
+        <v>0.3499780857004082</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -3974,19 +3974,19 @@
         <v>3102</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>7438</v>
+        <v>7611</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1025108249252583</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0317028400292334</v>
+        <v>0.03177301345717944</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2458484835558402</v>
+        <v>0.2515677140692768</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>8</v>
@@ -3995,19 +3995,19 @@
         <v>8464</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>4088</v>
+        <v>4024</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>15196</v>
+        <v>15225</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1379825782510585</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.06664077032660479</v>
+        <v>0.06560145454949369</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2477339300533036</v>
+        <v>0.2482143569890708</v>
       </c>
     </row>
     <row r="12">
@@ -4028,19 +4028,19 @@
         <v>23372</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>16558</v>
+        <v>16604</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>30200</v>
+        <v>31004</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4422119292084368</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3132767855986467</v>
+        <v>0.3141597909647239</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5713870554582339</v>
+        <v>0.5866049388599244</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>21</v>
@@ -4049,19 +4049,19 @@
         <v>22167</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>15570</v>
+        <v>15795</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>28858</v>
+        <v>28648</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5564008748076614</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3908138824998276</v>
+        <v>0.3964583486690991</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7243354434524319</v>
+        <v>0.7190786470221546</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>45</v>
@@ -4070,19 +4070,19 @@
         <v>45539</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>36871</v>
+        <v>36247</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>55200</v>
+        <v>55327</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.491291434153818</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3977775725904279</v>
+        <v>0.39104224359268</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5955159062560078</v>
+        <v>0.596881876683794</v>
       </c>
     </row>
     <row r="13">
@@ -4099,19 +4099,19 @@
         <v>3742</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>947</v>
+        <v>929</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9411</v>
+        <v>8440</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0708005615674213</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01792249533428629</v>
+        <v>0.01757399769888989</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1780550046191393</v>
+        <v>0.1596880246776058</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -4120,19 +4120,19 @@
         <v>4978</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1949</v>
+        <v>1939</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>10318</v>
+        <v>9787</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1249421295391992</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04891997450867657</v>
+        <v>0.04866050076503465</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2589831672060219</v>
+        <v>0.2456542593546476</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>9</v>
@@ -4141,19 +4141,19 @@
         <v>8720</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4694</v>
+        <v>4729</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>16050</v>
+        <v>15586</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09407112719947322</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05063595866867005</v>
+        <v>0.05101438597211285</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1731538833043533</v>
+        <v>0.1681443464218097</v>
       </c>
     </row>
     <row r="14">
@@ -4170,19 +4170,19 @@
         <v>23801</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>17010</v>
+        <v>17111</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>31421</v>
+        <v>30623</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4503179330684631</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3218304209601248</v>
+        <v>0.3237559378061099</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5945056246194551</v>
+        <v>0.5794015812967516</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>9</v>
@@ -4191,19 +4191,19 @@
         <v>9622</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4985</v>
+        <v>4166</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>15875</v>
+        <v>16024</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2415254018913497</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1251174147989373</v>
+        <v>0.1045703005146664</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3984645733091795</v>
+        <v>0.4021988942654325</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>34</v>
@@ -4212,19 +4212,19 @@
         <v>33423</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>24601</v>
+        <v>24858</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>42640</v>
+        <v>42953</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3605768989193976</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2654074343233668</v>
+        <v>0.2681765921483475</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4600099387100468</v>
+        <v>0.4633917073684193</v>
       </c>
     </row>
     <row r="15">
@@ -4244,7 +4244,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6885</v>
+        <v>5893</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.03666957615567886</v>
@@ -4253,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1302649145964404</v>
+        <v>0.1114994285284486</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>3</v>
@@ -4262,19 +4262,19 @@
         <v>3073</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0</v>
+        <v>964</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>8128</v>
+        <v>8990</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.07713159376178969</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0</v>
+        <v>0.02420856415568023</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2040124022634978</v>
+        <v>0.225644982687949</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>5</v>
@@ -4283,19 +4283,19 @@
         <v>5011</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1940</v>
+        <v>1916</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>11664</v>
+        <v>10982</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.05406053972731115</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.02092754712009205</v>
+        <v>0.02067476126428016</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1258347813658536</v>
+        <v>0.1184761599354809</v>
       </c>
     </row>
     <row r="16">
@@ -4316,19 +4316,19 @@
         <v>2876</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>874</v>
+        <v>884</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7485</v>
+        <v>8391</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09431323871642712</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02866817490010517</v>
+        <v>0.02897740993717745</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2454316442188883</v>
+        <v>0.2751517749952476</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -4340,7 +4340,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6639</v>
+        <v>5085</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1171231163170724</v>
@@ -4349,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4042775606941566</v>
+        <v>0.3096458377385609</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -4358,19 +4358,19 @@
         <v>4800</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1788</v>
+        <v>1839</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>10425</v>
+        <v>9644</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1022971294408935</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03811086578354725</v>
+        <v>0.03919728770312918</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2221767430657462</v>
+        <v>0.2055476154121674</v>
       </c>
     </row>
     <row r="17">
@@ -4390,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7558</v>
+        <v>6257</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06444860457432262</v>
@@ -4399,7 +4399,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.247830147067215</v>
+        <v>0.2051793772528907</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -4424,7 +4424,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6238</v>
+        <v>6372</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04189036795094057</v>
@@ -4433,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1329394049329709</v>
+        <v>0.1358073709915296</v>
       </c>
     </row>
     <row r="18">
@@ -4450,19 +4450,19 @@
         <v>24778</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>19808</v>
+        <v>19192</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>28409</v>
+        <v>28432</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8124850990468786</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.6494960338634643</v>
+        <v>0.629322362566303</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9315316824246359</v>
+        <v>0.9322834040911999</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>10</v>
@@ -4471,19 +4471,19 @@
         <v>10074</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>5261</v>
+        <v>5850</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>13272</v>
+        <v>13352</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.6134117203165101</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3203365394465383</v>
+        <v>0.3562128365354858</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8081109178547453</v>
+        <v>0.8130009367870409</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>31</v>
@@ -4492,19 +4492,19 @@
         <v>34852</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>27609</v>
+        <v>27926</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>40177</v>
+        <v>39831</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.7428056325560712</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5884275346445502</v>
+        <v>0.5951836518697308</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8562901731624547</v>
+        <v>0.8489065999436988</v>
       </c>
     </row>
     <row r="19">
@@ -4524,7 +4524,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4634</v>
+        <v>4619</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0287530576623717</v>
@@ -4533,7 +4533,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1519367946146613</v>
+        <v>0.151456163900363</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -4542,19 +4542,19 @@
         <v>4425</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1162</v>
+        <v>1150</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8706</v>
+        <v>8714</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2694651633664175</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07078170426186238</v>
+        <v>0.07002976952436497</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5301095591516878</v>
+        <v>0.53062597072128</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>5</v>
@@ -4563,19 +4563,19 @@
         <v>5302</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2010</v>
+        <v>2102</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>11574</v>
+        <v>11151</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1130068700520946</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04284129006979352</v>
+        <v>0.04479050969173617</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.246669954156865</v>
+        <v>0.2376685611571002</v>
       </c>
     </row>
     <row r="20">
@@ -4609,19 +4609,19 @@
         <v>3101</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0</v>
+        <v>957</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7448</v>
+        <v>7315</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1566136948095756</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0</v>
+        <v>0.04832728620844081</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3762006535878211</v>
+        <v>0.3694693632061676</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3</v>
@@ -4630,19 +4630,19 @@
         <v>3101</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>983</v>
+        <v>973</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>7610</v>
+        <v>8076</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.09404355164993088</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02981137817151095</v>
+        <v>0.02951648004168415</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2308132229175274</v>
+        <v>0.2449366425886231</v>
       </c>
     </row>
     <row r="21">
@@ -4662,7 +4662,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>4503</v>
+        <v>5219</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.08606397241187039</v>
@@ -4671,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3418767549017597</v>
+        <v>0.3962282378212715</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2</v>
@@ -4683,7 +4683,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>7545</v>
+        <v>8172</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1342553423458847</v>
@@ -4692,7 +4692,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3810909338540545</v>
+        <v>0.41277051455121</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>3</v>
@@ -4701,19 +4701,19 @@
         <v>3792</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>10284</v>
+        <v>10129</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1150019755218852</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02795583111591327</v>
+        <v>0.02805052895264085</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3119215098203429</v>
+        <v>0.3071984381822898</v>
       </c>
     </row>
     <row r="22">
@@ -4730,7 +4730,7 @@
         <v>11235</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>7497</v>
+        <v>7800</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>13172</v>
@@ -4739,7 +4739,7 @@
         <v>0.8529674979465582</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5691653607208269</v>
+        <v>0.5921346526520783</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>1</v>
@@ -4751,19 +4751,19 @@
         <v>13075</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>8511</v>
+        <v>8260</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>17567</v>
+        <v>16760</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6604297886090676</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4298805852635685</v>
+        <v>0.4172050634840189</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.887293332170272</v>
+        <v>0.8465685461129679</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>24</v>
@@ -4772,19 +4772,19 @@
         <v>24311</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>18451</v>
+        <v>17852</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>29002</v>
+        <v>28835</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7373522573084031</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5596150725106238</v>
+        <v>0.541437794485168</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8796124557073144</v>
+        <v>0.8745621820208361</v>
       </c>
     </row>
     <row r="23">
@@ -4804,7 +4804,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>4459</v>
+        <v>3422</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.06096852964157133</v>
@@ -4813,7 +4813,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3385585446930176</v>
+        <v>0.2598137677942648</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1</v>
@@ -4825,7 +4825,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>4963</v>
+        <v>4961</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.04870117423547202</v>
@@ -4834,7 +4834,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2506842539321792</v>
+        <v>0.2505580140258793</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5611</v>
+        <v>5614</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.05360221551978087</v>
@@ -4855,7 +4855,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.170180858935811</v>
+        <v>0.1702807043041496</v>
       </c>
     </row>
     <row r="24">
@@ -4876,19 +4876,19 @@
         <v>13729</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8419</v>
+        <v>8487</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>19876</v>
+        <v>19236</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4523334547692497</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.277388974006094</v>
+        <v>0.2796368931798132</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6548868942742994</v>
+        <v>0.6337798266209761</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>11</v>
@@ -4897,19 +4897,19 @@
         <v>11128</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>5973</v>
+        <v>6121</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>17318</v>
+        <v>17321</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.314210451625542</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1686518081038078</v>
+        <v>0.1728427755103557</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4890084208835038</v>
+        <v>0.4890781216526644</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>24</v>
@@ -4918,19 +4918,19 @@
         <v>24857</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>17423</v>
+        <v>17522</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>34093</v>
+        <v>32952</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3779547227111374</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2649293817790404</v>
+        <v>0.2664227581704153</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5184049118907742</v>
+        <v>0.5010565723424227</v>
       </c>
     </row>
     <row r="25">
@@ -4950,7 +4950,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>4715</v>
+        <v>5960</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03471893610208268</v>
@@ -4959,7 +4959,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1553579055233499</v>
+        <v>0.1963602501684568</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>4</v>
@@ -4968,19 +4968,19 @@
         <v>3934</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1017</v>
+        <v>975</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>8736</v>
+        <v>8261</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1110929581209362</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02872213675561788</v>
+        <v>0.02753436767064055</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.246687299516499</v>
+        <v>0.2332759573102373</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>5</v>
@@ -4989,19 +4989,19 @@
         <v>4988</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1899</v>
+        <v>1872</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>10978</v>
+        <v>10208</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07584606764895749</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02886824748214996</v>
+        <v>0.02846131430094892</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1669186479450297</v>
+        <v>0.1552128464008539</v>
       </c>
     </row>
     <row r="26">
@@ -5018,19 +5018,19 @@
         <v>15568</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>9496</v>
+        <v>10319</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>21024</v>
+        <v>21147</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5129476091286677</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3128576010860594</v>
+        <v>0.339996658469835</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6926806330174808</v>
+        <v>0.6967541690440383</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>18</v>
@@ -5039,19 +5039,19 @@
         <v>19266</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>12788</v>
+        <v>13071</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>24727</v>
+        <v>25155</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5439950048099995</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3610904604374685</v>
+        <v>0.3690873685220253</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6982020510463838</v>
+        <v>0.7102833310638459</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>32</v>
@@ -5060,19 +5060,19 @@
         <v>34834</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>26363</v>
+        <v>26813</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>42894</v>
+        <v>43199</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5296665181584789</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.400866450839919</v>
+        <v>0.4076960895192678</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6522229481295574</v>
+        <v>0.6568632845342243</v>
       </c>
     </row>
     <row r="27">
@@ -5105,7 +5105,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>5456</v>
+        <v>5545</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.03070158544352236</v>
@@ -5114,7 +5114,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1540604040010154</v>
+        <v>0.1565665778092606</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>4545</v>
+        <v>5173</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.01653269148142626</v>
@@ -5135,7 +5135,7 @@
         <v>0</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.06911256352755772</v>
+        <v>0.07866125632472387</v>
       </c>
     </row>
     <row r="28">
@@ -5156,19 +5156,19 @@
         <v>19612</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>13549</v>
+        <v>12512</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>28665</v>
+        <v>27431</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3028151273942208</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2092075790694862</v>
+        <v>0.1931926998585015</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4425997019671543</v>
+        <v>0.4235498930657309</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>15</v>
@@ -5177,19 +5177,19 @@
         <v>16601</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>10622</v>
+        <v>10538</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>24079</v>
+        <v>24860</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2781842586986042</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1779985516198236</v>
+        <v>0.1765853770422034</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.403509991761456</v>
+        <v>0.416592067202874</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>34</v>
@@ -5198,19 +5198,19 @@
         <v>36212</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>26845</v>
+        <v>26625</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>48670</v>
+        <v>47041</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2910034516955322</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2157281101220992</v>
+        <v>0.2139598521916203</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3911151746513084</v>
+        <v>0.37802199128698</v>
       </c>
     </row>
     <row r="29">
@@ -5227,19 +5227,19 @@
         <v>8268</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3734</v>
+        <v>4188</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>14555</v>
+        <v>14917</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1276680842200475</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05764711755021715</v>
+        <v>0.06466976615836653</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2247359795933777</v>
+        <v>0.2303190893932934</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>7</v>
@@ -5248,19 +5248,19 @@
         <v>6996</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3001</v>
+        <v>3079</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>12966</v>
+        <v>13344</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1172310264847964</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.05028072249652723</v>
+        <v>0.05160391155966461</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2172753187067333</v>
+        <v>0.2236050845613676</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>15</v>
@@ -5269,19 +5269,19 @@
         <v>15264</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>8179</v>
+        <v>9572</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>23312</v>
+        <v>23879</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1226630174990668</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.06572370773475483</v>
+        <v>0.0769173785439153</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1873384189154566</v>
+        <v>0.1918934429804277</v>
       </c>
     </row>
     <row r="30">
@@ -5298,19 +5298,19 @@
         <v>33371</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>25061</v>
+        <v>25208</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>41779</v>
+        <v>41320</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.5152559382108188</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3869520955131462</v>
+        <v>0.3892207790278916</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.6450810617219109</v>
+        <v>0.6379976838303937</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>32</v>
@@ -5319,19 +5319,19 @@
         <v>33916</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>26045</v>
+        <v>25667</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>40818</v>
+        <v>41428</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.5683440408354568</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4364491993415916</v>
+        <v>0.4301125519381248</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.6840122535974379</v>
+        <v>0.6942259545510614</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>64</v>
@@ -5340,19 +5340,19 @@
         <v>67286</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>56112</v>
+        <v>56977</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>79100</v>
+        <v>79153</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.5407142141413188</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4509161483533585</v>
+        <v>0.4578640579917043</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.6356478218447283</v>
+        <v>0.6360757341032178</v>
       </c>
     </row>
     <row r="31">
@@ -5369,19 +5369,19 @@
         <v>3514</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>947</v>
+        <v>971</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>8702</v>
+        <v>10800</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.0542608501749129</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01462905636966401</v>
+        <v>0.01499369628466594</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1343574253230851</v>
+        <v>0.1667575742107404</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>2</v>
@@ -5393,7 +5393,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>6821</v>
+        <v>7450</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.03624067398114265</v>
@@ -5402,7 +5402,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1142964738581138</v>
+        <v>0.1248484194101178</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>5</v>
@@ -5411,19 +5411,19 @@
         <v>5677</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2029</v>
+        <v>2178</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>12234</v>
+        <v>12882</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.04561931666408214</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01630443089581299</v>
+        <v>0.01749863339102588</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.09831002558338209</v>
+        <v>0.103518171576528</v>
       </c>
     </row>
     <row r="32">
@@ -5444,19 +5444,19 @@
         <v>3101</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>904</v>
+        <v>950</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>7417</v>
+        <v>8314</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1291538975132916</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.03764925168994428</v>
+        <v>0.03955543500367432</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3088945387320344</v>
+        <v>0.3462342760850585</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>5</v>
@@ -5465,19 +5465,19 @@
         <v>5479</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2066</v>
+        <v>2120</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>10706</v>
+        <v>11093</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2164644974966676</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.0816005554736111</v>
+        <v>0.08376216887010345</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4229503315562496</v>
+        <v>0.4382360590478976</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>8</v>
@@ -5486,19 +5486,19 @@
         <v>8581</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>3517</v>
+        <v>4307</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>14292</v>
+        <v>15404</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.173959478206537</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.07130700959633182</v>
+        <v>0.08732478687454871</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2897405458373071</v>
+        <v>0.3122963887055298</v>
       </c>
     </row>
     <row r="33">
@@ -5531,7 +5531,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>5242</v>
+        <v>5941</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.04446117216697416</v>
@@ -5540,7 +5540,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2070799779449898</v>
+        <v>0.234710173718294</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>1</v>
@@ -5552,7 +5552,7 @@
         <v>0</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>6879</v>
+        <v>7308</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.02281634346371385</v>
@@ -5561,7 +5561,7 @@
         <v>0</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.139450169494879</v>
+        <v>0.1481481382876209</v>
       </c>
     </row>
     <row r="34">
@@ -5578,19 +5578,19 @@
         <v>14834</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>9467</v>
+        <v>8662</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>19677</v>
+        <v>19146</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.6177281326739815</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.3942296961111744</v>
+        <v>0.3607222807426643</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.8194494415032414</v>
+        <v>0.7973243679225114</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>13</v>
@@ -5599,19 +5599,19 @@
         <v>15301</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>10159</v>
+        <v>9125</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>20204</v>
+        <v>19594</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.6044587781857657</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.4013390583669865</v>
+        <v>0.3604941549901807</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.7981724831827651</v>
+        <v>0.7740497157011966</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>27</v>
@@ -5620,19 +5620,19 @@
         <v>30134</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>22775</v>
+        <v>22512</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>36839</v>
+        <v>37209</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.6109186372246062</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.461726460489498</v>
+        <v>0.4563951046904787</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.7468544149538646</v>
+        <v>0.7543585492205342</v>
       </c>
     </row>
     <row r="35">
@@ -5649,19 +5649,19 @@
         <v>6078</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>2037</v>
+        <v>2296</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>11782</v>
+        <v>12264</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2531179698127268</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.08482416073362202</v>
+        <v>0.09561405798459419</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.4906506844064155</v>
+        <v>0.5107288723810961</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>3</v>
@@ -5670,19 +5670,19 @@
         <v>3408</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1051</v>
+        <v>1061</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>8326</v>
+        <v>8334</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1346155521505926</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.04150487369832767</v>
+        <v>0.04191827793229479</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3289117923983027</v>
+        <v>0.3292513664623757</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>8</v>
@@ -5691,19 +5691,19 @@
         <v>9486</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>4282</v>
+        <v>4312</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>16004</v>
+        <v>16832</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1923055411051431</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.08680658137137383</v>
+        <v>0.08740920604517151</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3244611269372439</v>
+        <v>0.341238800244396</v>
       </c>
     </row>
     <row r="36">
@@ -5724,19 +5724,19 @@
         <v>71311</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>56767</v>
+        <v>56706</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>86055</v>
+        <v>86348</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2513005880605759</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2000465606724085</v>
+        <v>0.1998332905392889</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3032568639912713</v>
+        <v>0.3042914733765441</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>67</v>
@@ -5745,19 +5745,19 @@
         <v>71646</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>57322</v>
+        <v>57762</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>87312</v>
+        <v>87765</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2816889685887476</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2253725933352568</v>
+        <v>0.2271018087347884</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3432818640050471</v>
+        <v>0.3450642188261306</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>138</v>
@@ -5766,19 +5766,19 @@
         <v>142957</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>124723</v>
+        <v>122433</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>165855</v>
+        <v>164504</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2656639118562051</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2317792469731457</v>
+        <v>0.2275236974518594</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3082158731202521</v>
+        <v>0.3057050302085133</v>
       </c>
     </row>
     <row r="37">
@@ -5795,19 +5795,19 @@
         <v>23180</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>15454</v>
+        <v>14492</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>34375</v>
+        <v>34646</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.08168624819199093</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.05446086970180992</v>
+        <v>0.05107066334351698</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.121138025179667</v>
+        <v>0.1220921038702031</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>21</v>
@@ -5816,19 +5816,19 @@
         <v>21840</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>13703</v>
+        <v>14081</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>31708</v>
+        <v>31866</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.08586949544261159</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.05387478186468465</v>
+        <v>0.05536053730064572</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1246655032603055</v>
+        <v>0.1252882270091185</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>43</v>
@@ -5837,19 +5837,19 @@
         <v>45020</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>33395</v>
+        <v>33002</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>60312</v>
+        <v>59837</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.08366349520988113</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.06205947829665855</v>
+        <v>0.06132875013888575</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1120813445937581</v>
+        <v>0.1111973706930812</v>
       </c>
     </row>
     <row r="38">
@@ -5866,19 +5866,19 @@
         <v>166030</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>147922</v>
+        <v>148648</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>182601</v>
+        <v>183205</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.5850886352451744</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.5212754344707771</v>
+        <v>0.523833856203814</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.6434830684548101</v>
+        <v>0.6456117542444992</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>131</v>
@@ -5887,19 +5887,19 @@
         <v>140550</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>124955</v>
+        <v>125532</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>156571</v>
+        <v>156597</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.5525961285964219</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.4912829525620363</v>
+        <v>0.4935502705324988</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.6155883024107116</v>
+        <v>0.6156886981798232</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>289</v>
@@ -5908,19 +5908,19 @@
         <v>306580</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>282790</v>
+        <v>282110</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>330119</v>
+        <v>329704</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.5697307785309935</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.5255218581946692</v>
+        <v>0.5242585808434899</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.6134758129920901</v>
+        <v>0.6127045430043535</v>
       </c>
     </row>
     <row r="39">
@@ -5937,19 +5937,19 @@
         <v>23248</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>15216</v>
+        <v>15289</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>34109</v>
+        <v>34022</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.08192452850225881</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.05362065584479793</v>
+        <v>0.05387923259038953</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1201999321074332</v>
+        <v>0.1198929040208837</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>19</v>
@@ -5958,19 +5958,19 @@
         <v>20308</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>11957</v>
+        <v>12765</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>29715</v>
+        <v>29975</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.07984540737221883</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.04701171180665895</v>
+        <v>0.05018772134421914</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.1168307868652389</v>
+        <v>0.1178503247475314</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>41</v>
@@ -5979,19 +5979,19 @@
         <v>43556</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>31220</v>
+        <v>32123</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>56848</v>
+        <v>57745</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.0809418144029203</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.05801759224057974</v>
+        <v>0.05969507980994264</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.1056439536739801</v>
+        <v>0.1073111036069275</v>
       </c>
     </row>
     <row r="40">
@@ -6259,7 +6259,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5169</v>
+        <v>5340</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05517543871887016</v>
@@ -6268,7 +6268,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2691533257727783</v>
+        <v>0.2780506563869138</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -6280,7 +6280,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7312</v>
+        <v>6447</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0700522545064088</v>
@@ -6289,7 +6289,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2422138370843875</v>
+        <v>0.2135683423450645</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -6298,19 +6298,19 @@
         <v>3174</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1019</v>
+        <v>1002</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8402</v>
+        <v>8492</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0642676943265563</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02062612738952903</v>
+        <v>0.02028119493746624</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1701100083512962</v>
+        <v>0.171931010218494</v>
       </c>
     </row>
     <row r="5">
@@ -6327,19 +6327,19 @@
         <v>8729</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4317</v>
+        <v>4701</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13731</v>
+        <v>13733</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4545185387575842</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2247685444122049</v>
+        <v>0.2447883616413188</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7149175785981217</v>
+        <v>0.7150121730941148</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -6348,19 +6348,19 @@
         <v>3013</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>898</v>
+        <v>862</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7853</v>
+        <v>8127</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09982327282176079</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02974240019995089</v>
+        <v>0.02856521287068161</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.260127865813584</v>
+        <v>0.2692271295280867</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>12</v>
@@ -6369,19 +6369,19 @@
         <v>11743</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>6297</v>
+        <v>6630</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>18582</v>
+        <v>18406</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.237739621361425</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1274811114908375</v>
+        <v>0.1342204336510155</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3762050718806818</v>
+        <v>0.3726422603265311</v>
       </c>
     </row>
     <row r="6">
@@ -6398,19 +6398,19 @@
         <v>9417</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5073</v>
+        <v>4820</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13876</v>
+        <v>13606</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4903060225235456</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2641361693064512</v>
+        <v>0.2509763279880837</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7224583644838978</v>
+        <v>0.7084259224402975</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>17</v>
@@ -6419,19 +6419,19 @@
         <v>19210</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>13215</v>
+        <v>13893</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>24612</v>
+        <v>24767</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6363370227663044</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4377563029903369</v>
+        <v>0.4602027534048367</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8152801675372289</v>
+        <v>0.820412444702704</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>26</v>
@@ -6440,19 +6440,19 @@
         <v>28627</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>21165</v>
+        <v>21246</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>36227</v>
+        <v>35347</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5795557114230622</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4284874932024076</v>
+        <v>0.4301381256338598</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7334259328738567</v>
+        <v>0.7156041183939498</v>
       </c>
     </row>
     <row r="7">
@@ -6482,19 +6482,19 @@
         <v>5850</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2113</v>
+        <v>2115</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11659</v>
+        <v>11480</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.193787449905526</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06998694091050635</v>
+        <v>0.07006164284632817</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3862203743734937</v>
+        <v>0.3802746080295506</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>5</v>
@@ -6503,19 +6503,19 @@
         <v>5850</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2160</v>
+        <v>2153</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>12201</v>
+        <v>11991</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1184369728889566</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04372792121671494</v>
+        <v>0.04358779554093498</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2470114145478158</v>
+        <v>0.2427589501853213</v>
       </c>
     </row>
     <row r="8">
@@ -6536,19 +6536,19 @@
         <v>3134</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>973</v>
+        <v>961</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7633</v>
+        <v>7542</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1614319749971021</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05013684508990139</v>
+        <v>0.04950985237249542</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3931431746547401</v>
+        <v>0.3884394680286566</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -6557,19 +6557,19 @@
         <v>4593</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1246</v>
+        <v>1101</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>9516</v>
+        <v>9344</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2892450312234487</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07847569719481927</v>
+        <v>0.06931409855099177</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5993507745251412</v>
+        <v>0.5884997926877197</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>7</v>
@@ -6578,19 +6578,19 @@
         <v>7727</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3377</v>
+        <v>3412</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>14042</v>
+        <v>13634</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.218933250809466</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.09569740328824305</v>
+        <v>0.09668719280875446</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3978593111264541</v>
+        <v>0.3863139411139505</v>
       </c>
     </row>
     <row r="9">
@@ -6654,19 +6654,19 @@
         <v>15264</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11010</v>
+        <v>10838</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18379</v>
+        <v>18402</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7862129410254001</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5670762607210925</v>
+        <v>0.5582086366679374</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9466595462376947</v>
+        <v>0.9478485704843528</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -6675,19 +6675,19 @@
         <v>9204</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4606</v>
+        <v>4438</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12747</v>
+        <v>12749</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5796594416314628</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2901137797682432</v>
+        <v>0.2794795978251734</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8027797606499948</v>
+        <v>0.8029319321391651</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>22</v>
@@ -6696,19 +6696,19 @@
         <v>24468</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>18493</v>
+        <v>18241</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>29592</v>
+        <v>29844</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6932874599413208</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5239733813040414</v>
+        <v>0.516858168749479</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8384644059135109</v>
+        <v>0.8456018054084046</v>
       </c>
     </row>
     <row r="11">
@@ -6728,7 +6728,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4518</v>
+        <v>5139</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.05235508397749782</v>
@@ -6737,7 +6737,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2327237163137771</v>
+        <v>0.2646685642869271</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -6749,7 +6749,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6459</v>
+        <v>6298</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1310955271450886</v>
@@ -6758,7 +6758,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4068077914395028</v>
+        <v>0.396638714836061</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>3</v>
@@ -6767,19 +6767,19 @@
         <v>3098</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>0</v>
+        <v>995</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>7438</v>
+        <v>8342</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.08777928924921322</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0</v>
+        <v>0.02819048940553051</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2107567142109542</v>
+        <v>0.2363695185519207</v>
       </c>
     </row>
     <row r="12">
@@ -6800,19 +6800,19 @@
         <v>4142</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9354</v>
+        <v>8543</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1783021522703977</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04142581676621444</v>
+        <v>0.04120193281736795</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4026673734912112</v>
+        <v>0.367738076068089</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1</v>
@@ -6824,7 +6824,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>4683</v>
+        <v>4289</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06692577161219244</v>
@@ -6833,7 +6833,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.33739498339211</v>
+        <v>0.3090192043915234</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>5</v>
@@ -6842,19 +6842,19 @@
         <v>5071</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1719</v>
+        <v>1760</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>10823</v>
+        <v>10267</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1366431548076506</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04631516683646471</v>
+        <v>0.04741777013268235</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2916239247117797</v>
+        <v>0.2766384244006323</v>
       </c>
     </row>
     <row r="13">
@@ -6871,19 +6871,19 @@
         <v>4576</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1668</v>
+        <v>1786</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8608</v>
+        <v>9064</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1969930372538144</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07177998529034045</v>
+        <v>0.07686957195161287</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3705397963679677</v>
+        <v>0.3901524235770411</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -6892,19 +6892,19 @@
         <v>3884</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1013</v>
+        <v>972</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7729</v>
+        <v>8051</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2798233382646254</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0729966537492801</v>
+        <v>0.07002473095417104</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5568064420390104</v>
+        <v>0.5800065338939301</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>9</v>
@@ -6913,19 +6913,19 @@
         <v>8461</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4481</v>
+        <v>4407</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>13912</v>
+        <v>13614</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2279747164864816</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1207510643150917</v>
+        <v>0.1187431778349465</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3748681072098987</v>
+        <v>0.3668307662543832</v>
       </c>
     </row>
     <row r="14">
@@ -6942,19 +6942,19 @@
         <v>15378</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>10531</v>
+        <v>10345</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>19187</v>
+        <v>19343</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.661945073172973</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4533131640760004</v>
+        <v>0.4453197622316383</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8259423517279679</v>
+        <v>0.8326298502554825</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>9</v>
@@ -6963,19 +6963,19 @@
         <v>9068</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5257</v>
+        <v>4970</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>12052</v>
+        <v>12093</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6532508901231822</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3787530747684992</v>
+        <v>0.3580266824363987</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8682558659591345</v>
+        <v>0.8711881659119121</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>25</v>
@@ -6984,19 +6984,19 @@
         <v>24445</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>18695</v>
+        <v>18943</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>29311</v>
+        <v>29841</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6586931184275284</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.503742353610685</v>
+        <v>0.5104260861099829</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7897894480813901</v>
+        <v>0.8040721217537584</v>
       </c>
     </row>
     <row r="15">
@@ -7064,19 +7064,19 @@
         <v>5010</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1345</v>
+        <v>1570</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11482</v>
+        <v>12116</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1304975526253754</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03502077358192388</v>
+        <v>0.04090386572095607</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2990794952544309</v>
+        <v>0.3155775987347215</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -7085,19 +7085,19 @@
         <v>3072</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>924</v>
+        <v>961</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8083</v>
+        <v>7836</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08446859432327879</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02540443786276675</v>
+        <v>0.02642682909754904</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2222326187430992</v>
+        <v>0.2154405206244393</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -7106,19 +7106,19 @@
         <v>8082</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3802</v>
+        <v>3453</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>15371</v>
+        <v>15399</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1081052358906011</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05085040952412931</v>
+        <v>0.04618644958852347</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2055933752043759</v>
+        <v>0.2059683187789677</v>
       </c>
     </row>
     <row r="17">
@@ -7135,19 +7135,19 @@
         <v>3881</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>937</v>
+        <v>958</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>8884</v>
+        <v>8685</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1010810044605932</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02441221620250206</v>
+        <v>0.02496145353336383</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2313947619718454</v>
+        <v>0.2262287912818942</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -7159,7 +7159,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6640</v>
+        <v>6546</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05232071520198459</v>
@@ -7168,7 +7168,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1825624698210628</v>
+        <v>0.1799883418321178</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6</v>
@@ -7177,19 +7177,19 @@
         <v>5784</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2510</v>
+        <v>2576</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>11573</v>
+        <v>11810</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07735994099459154</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03357379437849228</v>
+        <v>0.03445338138453941</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1547964692731822</v>
+        <v>0.1579694655348333</v>
       </c>
     </row>
     <row r="18">
@@ -7206,19 +7206,19 @@
         <v>22929</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>16092</v>
+        <v>15914</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>29826</v>
+        <v>29253</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5972316638773618</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4191480942022233</v>
+        <v>0.414503755061494</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7768776159488371</v>
+        <v>0.7619663932898977</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>22</v>
@@ -7227,19 +7227,19 @@
         <v>25887</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>19215</v>
+        <v>18722</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>31247</v>
+        <v>30897</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.7117483587709053</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.528299595126354</v>
+        <v>0.5147508929215001</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8591095981509764</v>
+        <v>0.8494978753982106</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>43</v>
@@ -7248,19 +7248,19 @@
         <v>48816</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>38951</v>
+        <v>39877</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>57511</v>
+        <v>57325</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.6529421165590367</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5209920219870574</v>
+        <v>0.5333787587569155</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7692381107075844</v>
+        <v>0.7667571120729371</v>
       </c>
     </row>
     <row r="19">
@@ -7277,19 +7277,19 @@
         <v>6572</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2853</v>
+        <v>2107</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12684</v>
+        <v>13054</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1711897790366696</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07432472761476563</v>
+        <v>0.05487002179793715</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.330374476030376</v>
+        <v>0.3400213857179366</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>5</v>
@@ -7298,19 +7298,19 @@
         <v>6531</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2429</v>
+        <v>2589</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>12970</v>
+        <v>13590</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1795606083053996</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0667718152508862</v>
+        <v>0.07119099378400648</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.356602992427645</v>
+        <v>0.3736513046208266</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>11</v>
@@ -7319,19 +7319,19 @@
         <v>13103</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>6320</v>
+        <v>6914</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>21293</v>
+        <v>21461</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1752620471746514</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08453274297368751</v>
+        <v>0.09247508719683455</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2848019390995842</v>
+        <v>0.2870532932819222</v>
       </c>
     </row>
     <row r="20">
@@ -7355,7 +7355,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3871</v>
+        <v>5602</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.09350568676592157</v>
@@ -7364,7 +7364,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3823988620291791</v>
+        <v>0.5533533770589758</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -7389,7 +7389,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>4800</v>
+        <v>3903</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.07027858924460509</v>
@@ -7398,7 +7398,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3563827627553816</v>
+        <v>0.2897450416337857</v>
       </c>
     </row>
     <row r="21">
@@ -7418,7 +7418,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>4573</v>
+        <v>4633</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1754290821213329</v>
@@ -7427,7 +7427,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4517436250546837</v>
+        <v>0.4575957250475746</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>0</v>
@@ -7452,7 +7452,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>5370</v>
+        <v>5326</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1318519635583978</v>
@@ -7461,7 +7461,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3987175542035964</v>
+        <v>0.3954330420222223</v>
       </c>
     </row>
     <row r="22">
@@ -7478,19 +7478,19 @@
         <v>6587</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3731</v>
+        <v>3760</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>9248</v>
+        <v>9237</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6506548633165633</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3685553298144251</v>
+        <v>0.3713966194747264</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9135012792376427</v>
+        <v>0.9123554970705408</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -7512,19 +7512,19 @@
         <v>9932</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6107</v>
+        <v>6270</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>12594</v>
+        <v>12601</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7374332597862537</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4533829988876217</v>
+        <v>0.4655296424818915</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9350152555841468</v>
+        <v>0.9355718766831516</v>
       </c>
     </row>
     <row r="23">
@@ -7544,7 +7544,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3421</v>
+        <v>3385</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.08041036779618217</v>
@@ -7553,7 +7553,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3379382741571447</v>
+        <v>0.3343333971098653</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>0</v>
@@ -7578,7 +7578,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>3490</v>
+        <v>3729</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.06043618741074343</v>
@@ -7587,7 +7587,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2591138892259984</v>
+        <v>0.2768311169669894</v>
       </c>
     </row>
     <row r="24">
@@ -7608,19 +7608,19 @@
         <v>8253</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4413</v>
+        <v>4493</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>13946</v>
+        <v>13515</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2924281908673493</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1563405247272397</v>
+        <v>0.1591999457503699</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4941066871607597</v>
+        <v>0.4788355726967194</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>4</v>
@@ -7629,19 +7629,19 @@
         <v>4540</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1249</v>
+        <v>1231</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>9939</v>
+        <v>10186</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1245327110387856</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03426210639154387</v>
+        <v>0.03375083965392816</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2726038189566713</v>
+        <v>0.2793711479570335</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>13</v>
@@ -7650,19 +7650,19 @@
         <v>12794</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>7397</v>
+        <v>7212</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>20323</v>
+        <v>20896</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.197792113332766</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1143567492108094</v>
+        <v>0.1114917155245353</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3141901838981387</v>
+        <v>0.3230527097334794</v>
       </c>
     </row>
     <row r="25">
@@ -7679,19 +7679,19 @@
         <v>3516</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>876</v>
+        <v>919</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>7876</v>
+        <v>8141</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1245709504718744</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03104960878586974</v>
+        <v>0.03254681695919379</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2790541103841536</v>
+        <v>0.2884537763071646</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>4</v>
@@ -7700,19 +7700,19 @@
         <v>4493</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>10193</v>
+        <v>10401</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1232261389771808</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03334865733138746</v>
+        <v>0.0332781103076178</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2795768392387284</v>
+        <v>0.285289160033447</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>8</v>
@@ -7721,19 +7721,19 @@
         <v>8009</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3922</v>
+        <v>3775</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>14919</v>
+        <v>13849</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1238129331326871</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0606268132121932</v>
+        <v>0.0583540942839299</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.230644623300661</v>
+        <v>0.2140993522604653</v>
       </c>
     </row>
     <row r="26">
@@ -7750,19 +7750,19 @@
         <v>12922</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>7981</v>
+        <v>8142</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>17982</v>
+        <v>18861</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4578264359257972</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2827867408864614</v>
+        <v>0.2884613514754751</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6371163118479897</v>
+        <v>0.6682578611795412</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>21</v>
@@ -7771,19 +7771,19 @@
         <v>24048</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>17331</v>
+        <v>16478</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>29354</v>
+        <v>29416</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6595915420372624</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4753507175480364</v>
+        <v>0.4519517047752414</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8051133602066031</v>
+        <v>0.8068127323421468</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>34</v>
@@ -7792,19 +7792,19 @@
         <v>36970</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>29108</v>
+        <v>28317</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>44598</v>
+        <v>44312</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5715534894786087</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4500170191206098</v>
+        <v>0.4377774282618591</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6894798786456562</v>
+        <v>0.6850580413957286</v>
       </c>
     </row>
     <row r="27">
@@ -7821,19 +7821,19 @@
         <v>3533</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>9956</v>
+        <v>9086</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1251744227349791</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.03038606110737741</v>
+        <v>0.03011328374527616</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3527579332026044</v>
+        <v>0.3219082672503025</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>3</v>
@@ -7842,19 +7842,19 @@
         <v>3378</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1029</v>
+        <v>1012</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>8612</v>
+        <v>8709</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.09264960794677109</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.02823321025945819</v>
+        <v>0.02775753835913022</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2362076277130035</v>
+        <v>0.2388625251059669</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>6</v>
@@ -7863,19 +7863,19 @@
         <v>6911</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>3064</v>
+        <v>2775</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>14614</v>
+        <v>14456</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1068414640559382</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.04737088233688955</v>
+        <v>0.04289692269711538</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2259324060427638</v>
+        <v>0.2234845895410504</v>
       </c>
     </row>
     <row r="28">
@@ -7896,19 +7896,19 @@
         <v>5460</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2174</v>
+        <v>2035</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>11218</v>
+        <v>10222</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2065263229807055</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.08224746000628437</v>
+        <v>0.076962035665622</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4243360669009815</v>
+        <v>0.3866721853977674</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>6</v>
@@ -7917,19 +7917,19 @@
         <v>6786</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2960</v>
+        <v>2662</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>12479</v>
+        <v>12605</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2475973292458418</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1080179279383085</v>
+        <v>0.09713166240293541</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4553174911128126</v>
+        <v>0.4599207987515385</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>11</v>
@@ -7938,19 +7938,19 @@
         <v>12246</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>6443</v>
+        <v>6777</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>19548</v>
+        <v>20174</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2274320304246147</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1196587516495988</v>
+        <v>0.1258702264739067</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.363054968058745</v>
+        <v>0.3746730169427198</v>
       </c>
     </row>
     <row r="29">
@@ -7983,7 +7983,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>7951</v>
+        <v>7052</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.08454588076638943</v>
@@ -7992,7 +7992,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2901256052962735</v>
+        <v>0.2573237100089886</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2</v>
@@ -8004,7 +8004,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>8212</v>
+        <v>8071</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.04303501690412995</v>
@@ -8013,7 +8013,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1525146894771858</v>
+        <v>0.1498943712639028</v>
       </c>
     </row>
     <row r="30">
@@ -8030,19 +8030,19 @@
         <v>17946</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>12186</v>
+        <v>12341</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>22173</v>
+        <v>22269</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.678846005529451</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4609435173791973</v>
+        <v>0.4668123102099409</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.8387596428251215</v>
+        <v>0.8423609701247941</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>14</v>
@@ -8051,19 +8051,19 @@
         <v>15124</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>9381</v>
+        <v>10001</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>20692</v>
+        <v>20320</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.551835375277459</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3422669900933332</v>
+        <v>0.3649060815668261</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.7549848794847275</v>
+        <v>0.7414213500205533</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>30</v>
@@ -8072,19 +8072,19 @@
         <v>33070</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>25441</v>
+        <v>25555</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>39816</v>
+        <v>39811</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.6141958467002865</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4724986129712671</v>
+        <v>0.4746172877388651</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.7394882732687317</v>
+        <v>0.7393863301737736</v>
       </c>
     </row>
     <row r="31">
@@ -8101,19 +8101,19 @@
         <v>3030</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>7493</v>
+        <v>7404</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1146276714898436</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03360289631982096</v>
+        <v>0.03364813726247874</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2834355387154732</v>
+        <v>0.2800674558817324</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>3</v>
@@ -8122,19 +8122,19 @@
         <v>3180</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1007</v>
+        <v>1028</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>8457</v>
+        <v>8018</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1160214147103098</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.03675338838667574</v>
+        <v>0.03751624032877816</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3085634512419126</v>
+        <v>0.2925660087736983</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>6</v>
@@ -8143,19 +8143,19 @@
         <v>6210</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2674</v>
+        <v>2246</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>12485</v>
+        <v>11631</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1153371059709688</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.04966540497588159</v>
+        <v>0.04170898465706917</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.231877759154085</v>
+        <v>0.2160259882359906</v>
       </c>
     </row>
     <row r="32">
@@ -8176,19 +8176,19 @@
         <v>4382</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1016</v>
+        <v>1021</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>10643</v>
+        <v>9728</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1266275354712154</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02936898687315136</v>
+        <v>0.02948965195293182</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3075517826724791</v>
+        <v>0.2811018261872075</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>5</v>
@@ -8197,19 +8197,19 @@
         <v>5069</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1966</v>
+        <v>1905</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>10415</v>
+        <v>10194</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.189578627254286</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.07353482501120431</v>
+        <v>0.07124216196932158</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3895595215577896</v>
+        <v>0.3812856993469029</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>9</v>
@@ -8218,19 +8218,19 @@
         <v>9451</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>4837</v>
+        <v>4455</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>17100</v>
+        <v>16607</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1540647816636918</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.07884671103630306</v>
+        <v>0.07263041375591443</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2787677037190813</v>
+        <v>0.2707211327649224</v>
       </c>
     </row>
     <row r="33">
@@ -8247,19 +8247,19 @@
         <v>2996</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>921</v>
+        <v>941</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>7429</v>
+        <v>7655</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.08658811502595674</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.02661996626273741</v>
+        <v>0.02718142461241948</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2146676213967181</v>
+        <v>0.2212145768574664</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>4</v>
@@ -8268,19 +8268,19 @@
         <v>3865</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>8129</v>
+        <v>8883</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.144549857540804</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.03629985955621774</v>
+        <v>0.03617337118070629</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.3040647519672771</v>
+        <v>0.3322326697371746</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>7</v>
@@ -8289,19 +8289,19 @@
         <v>6861</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>2932</v>
+        <v>2961</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>13746</v>
+        <v>13434</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1118507523223043</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.04780482700679332</v>
+        <v>0.04826449624148194</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2240900136306106</v>
+        <v>0.2190080221613836</v>
       </c>
     </row>
     <row r="34">
@@ -8318,19 +8318,19 @@
         <v>20612</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>14600</v>
+        <v>14339</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>26465</v>
+        <v>26002</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.5956124532737219</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.4218970006696663</v>
+        <v>0.4143528754102871</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.764762311463361</v>
+        <v>0.7513825033125991</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>16</v>
@@ -8339,19 +8339,19 @@
         <v>17803</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>12501</v>
+        <v>12348</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>22045</v>
+        <v>22555</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.6658715152049101</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.4675544693170632</v>
+        <v>0.4618665058267016</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.8245388057392831</v>
+        <v>0.8436154758408967</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>36</v>
@@ -8360,19 +8360,19 @@
         <v>38414</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>30351</v>
+        <v>30911</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>46191</v>
+        <v>45864</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.6262348797457101</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.4947867427778452</v>
+        <v>0.5039111743530227</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.7530097693024467</v>
+        <v>0.7476752149756321</v>
       </c>
     </row>
     <row r="35">
@@ -8389,19 +8389,19 @@
         <v>7399</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>3374</v>
+        <v>3568</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>13803</v>
+        <v>14060</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2138075825905733</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.09748751712233121</v>
+        <v>0.1030895876614655</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3988575013535681</v>
+        <v>0.4062771888590673</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>0</v>
@@ -8423,19 +8423,19 @@
         <v>7399</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>2949</v>
+        <v>3059</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>14727</v>
+        <v>14278</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1206195041125853</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.04806889540901328</v>
+        <v>0.0498685762277577</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2400853220254923</v>
+        <v>0.2327585860277077</v>
       </c>
     </row>
     <row r="36">
@@ -8456,19 +8456,19 @@
         <v>32388</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>23674</v>
+        <v>22466</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>44609</v>
+        <v>44023</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1622372349374258</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1185887536949331</v>
+        <v>0.1125356196550872</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2234517197381383</v>
+        <v>0.2205163787498732</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>25</v>
@@ -8477,19 +8477,19 @@
         <v>27103</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>17766</v>
+        <v>18946</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>37592</v>
+        <v>38836</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1424495369794327</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.09337410973040168</v>
+        <v>0.09957699663614289</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1975778706328508</v>
+        <v>0.2041149012183035</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>56</v>
@@ -8498,19 +8498,19 @@
         <v>59491</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>45479</v>
+        <v>45556</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>75988</v>
+        <v>73907</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1525810898873958</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1166424917785176</v>
+        <v>0.1168391849727012</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1948902165250718</v>
+        <v>0.1895526349169909</v>
       </c>
     </row>
     <row r="37">
@@ -8527,19 +8527,19 @@
         <v>25475</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>17838</v>
+        <v>17507</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>36053</v>
+        <v>34811</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.127607582443979</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.08935257637601915</v>
+        <v>0.08769774928772353</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1805958467185067</v>
+        <v>0.1743722190095187</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>19</v>
@@ -8548,19 +8548,19 @@
         <v>19475</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>12031</v>
+        <v>12006</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>28621</v>
+        <v>29334</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1023582713288297</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.06323448786625396</v>
+        <v>0.06310310647467961</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1504273535815038</v>
+        <v>0.1541711897881559</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>46</v>
@@ -8569,19 +8569,19 @@
         <v>44950</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>33673</v>
+        <v>33702</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>58976</v>
+        <v>59845</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1152862396046655</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.0863640675451105</v>
+        <v>0.08643674821217456</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1512585629214219</v>
+        <v>0.1534884609491254</v>
       </c>
     </row>
     <row r="38">
@@ -8598,19 +8598,19 @@
         <v>121054</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>104670</v>
+        <v>108704</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>134181</v>
+        <v>134173</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.6063818797338738</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.524311462102766</v>
+        <v>0.5445165667130176</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.6721329609166048</v>
+        <v>0.6720927707870871</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>110</v>
@@ -8619,19 +8619,19 @@
         <v>123689</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>110833</v>
+        <v>108679</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>137274</v>
+        <v>135984</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.6500861036753899</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.5825148803480666</v>
+        <v>0.5711940730056578</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.7214831630641856</v>
+        <v>0.7147024799837746</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>226</v>
@@ -8640,19 +8640,19 @@
         <v>244744</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>225448</v>
+        <v>224781</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>264251</v>
+        <v>263966</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.6277089854221737</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.5782197415127176</v>
+        <v>0.5765086778659047</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.6777400866226355</v>
+        <v>0.6770091137982209</v>
       </c>
     </row>
     <row r="39">
@@ -8669,19 +8669,19 @@
         <v>22365</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>14472</v>
+        <v>14190</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>31928</v>
+        <v>33267</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.1120307116734854</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.07249023741365046</v>
+        <v>0.07107788922375817</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1599348070090502</v>
+        <v>0.1666397428475671</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>18</v>
@@ -8690,19 +8690,19 @@
         <v>21020</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>12609</v>
+        <v>12369</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>30865</v>
+        <v>30880</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.110477326165809</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.06627189459887682</v>
+        <v>0.06500667462374754</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.1622197284071195</v>
+        <v>0.1623006533364053</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>39</v>
@@ -8711,19 +8711,19 @@
         <v>43385</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>31780</v>
+        <v>30952</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>58150</v>
+        <v>57681</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.1112726792933379</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.08150899384747058</v>
+        <v>0.07938486709833006</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.1491415700738546</v>
+        <v>0.1479370194448698</v>
       </c>
     </row>
     <row r="40">
@@ -8988,19 +8988,19 @@
         <v>5538</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2171</v>
+        <v>2160</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9891</v>
+        <v>10091</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.204816262940742</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08027912097912318</v>
+        <v>0.07989597409267965</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3658145790957487</v>
+        <v>0.3731983644062744</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -9009,19 +9009,19 @@
         <v>6083</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3507</v>
+        <v>3537</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9606</v>
+        <v>9793</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1998642048615941</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1152159044785895</v>
+        <v>0.1162004480372131</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3156239613378686</v>
+        <v>0.3217770135551599</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -9030,19 +9030,19 @@
         <v>11621</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7310</v>
+        <v>7262</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>17287</v>
+        <v>17332</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2021939365070329</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.127194786307173</v>
+        <v>0.126347775418184</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.300779295884867</v>
+        <v>0.3015593508634523</v>
       </c>
     </row>
     <row r="5">
@@ -9062,16 +9062,16 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5113</v>
+        <v>5232</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.05745451346603438</v>
+        <v>0.05745451346603436</v>
       </c>
       <c r="H5" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1891009948697876</v>
+        <v>0.1935163014629736</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -9080,19 +9080,19 @@
         <v>1665</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>4646</v>
+        <v>4443</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05472273260190648</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01620656009232224</v>
+        <v>0.01639182260708952</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.152646132162526</v>
+        <v>0.1459852508107512</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>5</v>
@@ -9101,19 +9101,19 @@
         <v>3219</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1071</v>
+        <v>1223</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>6708</v>
+        <v>7403</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05600791872570451</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01862697166105188</v>
+        <v>0.02128332242884665</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1167116678971668</v>
+        <v>0.1288024754040889</v>
       </c>
     </row>
     <row r="6">
@@ -9130,19 +9130,19 @@
         <v>18804</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14120</v>
+        <v>13660</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>23264</v>
+        <v>22877</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.6954569280885042</v>
+        <v>0.6954569280885039</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5222073462077241</v>
+        <v>0.5051865316319316</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8603918888110831</v>
+        <v>0.8460760371092942</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>40</v>
@@ -9154,16 +9154,16 @@
         <v>16947</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>24098</v>
+        <v>23905</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.6840355587786209</v>
+        <v>0.684035558778621</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5568297986215346</v>
+        <v>0.5568385701367471</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7917776687417956</v>
+        <v>0.7854444933203306</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>59</v>
@@ -9172,19 +9172,19 @@
         <v>39623</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>33621</v>
+        <v>33789</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>45287</v>
+        <v>45639</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6894088248207785</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5849689190586066</v>
+        <v>0.5879056956885167</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7879586596636989</v>
+        <v>0.7940820359295306</v>
       </c>
     </row>
     <row r="7">
@@ -9204,16 +9204,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5287</v>
+        <v>4908</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.0422722955047197</v>
+        <v>0.04227229550471969</v>
       </c>
       <c r="H7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1955386701212021</v>
+        <v>0.1815006045202577</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -9222,19 +9222,19 @@
         <v>1868</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>468</v>
+        <v>489</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4267</v>
+        <v>4257</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06137750375787846</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01537137413509562</v>
+        <v>0.01605206582901239</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.140191285208802</v>
+        <v>0.1398756745639154</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>5</v>
@@ -9243,19 +9243,19 @@
         <v>3011</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>962</v>
+        <v>896</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>6800</v>
+        <v>7347</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.05238931994648408</v>
+        <v>0.0523893199464841</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01673993100402007</v>
+        <v>0.01558914064261844</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1183135365481108</v>
+        <v>0.1278352483600488</v>
       </c>
     </row>
     <row r="8">
@@ -9276,19 +9276,19 @@
         <v>6297</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2018</v>
+        <v>2149</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>13858</v>
+        <v>13489</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2549215994812614</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08169046712134781</v>
+        <v>0.0869973341451112</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5609704245784417</v>
+        <v>0.5460482503750622</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>9</v>
@@ -9297,19 +9297,19 @@
         <v>6433</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3282</v>
+        <v>2925</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>11282</v>
+        <v>10777</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1852404730125247</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.09449572718633727</v>
+        <v>0.08423028499348642</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3248529963341701</v>
+        <v>0.3103120447508538</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>13</v>
@@ -9318,19 +9318,19 @@
         <v>12731</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>6505</v>
+        <v>7391</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>21198</v>
+        <v>21422</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.2142032624683752</v>
+        <v>0.2142032624683751</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1094591451900655</v>
+        <v>0.1243506122430099</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3566637007272856</v>
+        <v>0.3604419158506822</v>
       </c>
     </row>
     <row r="9">
@@ -9347,19 +9347,19 @@
         <v>4308</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>983</v>
+        <v>1058</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>11152</v>
+        <v>10836</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1743840556382746</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03977330642604485</v>
+        <v>0.04281854112902302</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4514334049622172</v>
+        <v>0.4386340118710155</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>16</v>
@@ -9368,19 +9368,19 @@
         <v>12154</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>7730</v>
+        <v>7817</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>17507</v>
+        <v>17067</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3499449586060518</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2225845629690334</v>
+        <v>0.2250702172546833</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5041018451287865</v>
+        <v>0.4914319579509476</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>19</v>
@@ -9389,19 +9389,19 @@
         <v>16461</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>10191</v>
+        <v>9679</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>24473</v>
+        <v>24556</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2769734995178287</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1714687073710279</v>
+        <v>0.1628519305016701</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4117734179213342</v>
+        <v>0.4131656198725688</v>
       </c>
     </row>
     <row r="10">
@@ -9418,19 +9418,19 @@
         <v>9421</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3980</v>
+        <v>4500</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15525</v>
+        <v>15552</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.3813545363347268</v>
+        <v>0.3813545363347269</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1611079852863773</v>
+        <v>0.1821487293555009</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.628473559565168</v>
+        <v>0.6295649156658051</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -9439,19 +9439,19 @@
         <v>12993</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8685</v>
+        <v>8242</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18343</v>
+        <v>17937</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.3741179836820817</v>
+        <v>0.3741179836820818</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.250077623441923</v>
+        <v>0.2373067615110849</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5281577783928503</v>
+        <v>0.5164784044838732</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>26</v>
@@ -9460,19 +9460,19 @@
         <v>22414</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>15455</v>
+        <v>15810</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>30064</v>
+        <v>30161</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.3771258390582254</v>
+        <v>0.3771258390582253</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.260032789838352</v>
+        <v>0.2660120087980795</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5058461043675697</v>
+        <v>0.5074734869952621</v>
       </c>
     </row>
     <row r="11">
@@ -9489,19 +9489,19 @@
         <v>4677</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1580</v>
+        <v>1681</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>9682</v>
+        <v>10236</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1893398085457371</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.06394920528862072</v>
+        <v>0.06805683488799173</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3919282978109445</v>
+        <v>0.4143512116230265</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -9510,19 +9510,19 @@
         <v>3150</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>801</v>
+        <v>1178</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>7137</v>
+        <v>7611</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.09069658469934182</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02307519313007692</v>
+        <v>0.03392562894725182</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.205491113529839</v>
+        <v>0.2191440599654323</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>9</v>
@@ -9531,19 +9531,19 @@
         <v>7827</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>3907</v>
+        <v>3514</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>14083</v>
+        <v>13131</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1316973989555708</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.06574557884788067</v>
+        <v>0.05912516429187345</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.236948172089907</v>
+        <v>0.2209440117873263</v>
       </c>
     </row>
     <row r="12">
@@ -9564,19 +9564,19 @@
         <v>3674</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1438</v>
+        <v>1558</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7337</v>
+        <v>7437</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1646528348683682</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06447179050225643</v>
+        <v>0.06983966320947296</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3288662967105495</v>
+        <v>0.333330855514291</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>13</v>
@@ -9585,19 +9585,19 @@
         <v>7034</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3905</v>
+        <v>4304</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>11023</v>
+        <v>11058</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2634029789926529</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1462278057303619</v>
+        <v>0.1611708788769962</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4127809800327217</v>
+        <v>0.4140621271680484</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>19</v>
@@ -9606,19 +9606,19 @@
         <v>10708</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>6461</v>
+        <v>6913</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>15582</v>
+        <v>16128</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2184541114548035</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1318261352503547</v>
+        <v>0.1410301573426626</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3179004047378403</v>
+        <v>0.3290406521843106</v>
       </c>
     </row>
     <row r="13">
@@ -9635,19 +9635,19 @@
         <v>2010</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5331</v>
+        <v>5883</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.0900843049591098</v>
+        <v>0.09008430495910981</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02148864383357245</v>
+        <v>0.02108340694334741</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2389402785052406</v>
+        <v>0.2636938274790526</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -9656,19 +9656,19 @@
         <v>6079</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2803</v>
+        <v>2646</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>10713</v>
+        <v>10446</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2276289823181995</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1049486142741623</v>
+        <v>0.09909206416822527</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4011472231635729</v>
+        <v>0.3911729328819644</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>11</v>
@@ -9677,19 +9677,19 @@
         <v>8089</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4259</v>
+        <v>4056</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>13925</v>
+        <v>13689</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1650217067746942</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08689576881606802</v>
+        <v>0.0827562573657674</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2840966084418994</v>
+        <v>0.2792809355373608</v>
       </c>
     </row>
     <row r="14">
@@ -9706,19 +9706,19 @@
         <v>13610</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>9163</v>
+        <v>9347</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>17473</v>
+        <v>17275</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6100307857399144</v>
+        <v>0.6100307857399146</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4106756829703833</v>
+        <v>0.418958910975044</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7831786116614521</v>
+        <v>0.7742740227583272</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>19</v>
@@ -9727,19 +9727,19 @@
         <v>11885</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>8045</v>
+        <v>8094</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>16379</v>
+        <v>16483</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4450290457029084</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3012386487440722</v>
+        <v>0.3030944425077339</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.613315986806903</v>
+        <v>0.6172416903634029</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>34</v>
@@ -9748,19 +9748,19 @@
         <v>25494</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>19990</v>
+        <v>19545</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>32159</v>
+        <v>31446</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.5201341650139613</v>
+        <v>0.5201341650139611</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4078306193734353</v>
+        <v>0.3987521240542956</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6561091503019267</v>
+        <v>0.6415625062946255</v>
       </c>
     </row>
     <row r="15">
@@ -9777,19 +9777,19 @@
         <v>3017</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>921</v>
+        <v>837</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7011</v>
+        <v>6598</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1352320744326076</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.04129461109533742</v>
+        <v>0.03749718400610493</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3142600555630668</v>
+        <v>0.2957340573008734</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>3</v>
@@ -9798,19 +9798,19 @@
         <v>1707</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>4748</v>
+        <v>4266</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.06393899298623917</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.01368678252435523</v>
+        <v>0.01377071187676497</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1777772150578165</v>
+        <v>0.1597393634930092</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>7</v>
@@ -9819,19 +9819,19 @@
         <v>4725</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1814</v>
+        <v>1874</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>9072</v>
+        <v>9190</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.09639001675654135</v>
+        <v>0.09639001675654132</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.03700919881067004</v>
+        <v>0.03822801677810523</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1850841318693488</v>
+        <v>0.1874892605614308</v>
       </c>
     </row>
     <row r="16">
@@ -9855,7 +9855,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9171</v>
+        <v>9195</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07013495692878179</v>
@@ -9864,7 +9864,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3263997434025063</v>
+        <v>0.3272810173669479</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -9873,19 +9873,19 @@
         <v>2014</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>479</v>
+        <v>438</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5347</v>
+        <v>5173</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1038433330799655</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02470557984954605</v>
+        <v>0.02256935116506754</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.275657644321828</v>
+        <v>0.2666380221696044</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -9894,19 +9894,19 @@
         <v>3985</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1110</v>
+        <v>1301</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11158</v>
+        <v>10871</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08390285722498809</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02336584973803061</v>
+        <v>0.02739621497606634</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2349373360295394</v>
+        <v>0.2288869530372905</v>
       </c>
     </row>
     <row r="17">
@@ -9926,7 +9926,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4810</v>
+        <v>5201</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0309252024053333</v>
@@ -9935,7 +9935,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1711880716856065</v>
+        <v>0.1851007202010806</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -9944,19 +9944,19 @@
         <v>2625</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>635</v>
+        <v>700</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6295</v>
+        <v>6844</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1353037421308787</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03272572790691647</v>
+        <v>0.03608358351479698</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3244967920199719</v>
+        <v>0.3527778778075678</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5</v>
@@ -9965,19 +9965,19 @@
         <v>3494</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1034</v>
+        <v>1272</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>8144</v>
+        <v>8512</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.07355773152983264</v>
+        <v>0.07355773152983262</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02177496350040841</v>
+        <v>0.02678922698588949</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1714751308108885</v>
+        <v>0.1792195263389638</v>
       </c>
     </row>
     <row r="18">
@@ -9994,19 +9994,19 @@
         <v>17704</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9214</v>
+        <v>9650</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>23487</v>
+        <v>24251</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.6301253467045517</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3279642407716011</v>
+        <v>0.3434732991530124</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8359600324804454</v>
+        <v>0.8631495268904374</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>10</v>
@@ -10015,19 +10015,19 @@
         <v>8120</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>3712</v>
+        <v>3582</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>13507</v>
+        <v>13699</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4185988637320942</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1913426487026035</v>
+        <v>0.1846256002583898</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6962697731462956</v>
+        <v>0.7061702208826834</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>21</v>
@@ -10036,19 +10036,19 @@
         <v>25824</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>15228</v>
+        <v>16273</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>34529</v>
+        <v>34070</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5437291490796563</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3206263183930221</v>
+        <v>0.3426268370202166</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7270243491501507</v>
+        <v>0.7173512437276209</v>
       </c>
     </row>
     <row r="19">
@@ -10065,19 +10065,19 @@
         <v>7553</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2387</v>
+        <v>2119</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>16928</v>
+        <v>17015</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2688144939613332</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08495193339359648</v>
+        <v>0.07543050319462304</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.602500745344314</v>
+        <v>0.6056079793061002</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>7</v>
@@ -10086,19 +10086,19 @@
         <v>6639</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2357</v>
+        <v>2266</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>13883</v>
+        <v>13269</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3422540610570616</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1214795741980584</v>
+        <v>0.1168046379603707</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7156490249066669</v>
+        <v>0.6840056309097154</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>12</v>
@@ -10107,19 +10107,19 @@
         <v>14192</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>6774</v>
+        <v>6547</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>25932</v>
+        <v>24979</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.2988102621655229</v>
+        <v>0.2988102621655228</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1426208290029813</v>
+        <v>0.1378424896602664</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5460114911118239</v>
+        <v>0.5259321836926116</v>
       </c>
     </row>
     <row r="20">
@@ -10143,16 +10143,16 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4631</v>
+        <v>4263</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.198052909579652</v>
+        <v>0.1980529095796519</v>
       </c>
       <c r="H20" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6181885128057575</v>
+        <v>0.5691429565473961</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -10177,7 +10177,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>4604</v>
+        <v>4312</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1850715022090142</v>
@@ -10186,7 +10186,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5743753195479568</v>
+        <v>0.5379402177414723</v>
       </c>
     </row>
     <row r="21">
@@ -10250,16 +10250,16 @@
         <v>6007</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2860</v>
+        <v>3217</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>7491</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.8019470904203481</v>
+        <v>0.801947090420348</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.381811487194239</v>
+        <v>0.4294133188083296</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>1</v>
@@ -10284,19 +10284,19 @@
         <v>6007</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2867</v>
+        <v>3041</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>7580</v>
+        <v>7621</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.7493833492840057</v>
+        <v>0.7493833492840056</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.357709463442537</v>
+        <v>0.3794258194012312</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9456202599485339</v>
+        <v>0.9507471832551389</v>
       </c>
     </row>
     <row r="23">
@@ -10342,7 +10342,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2530</v>
+        <v>3271</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.06554514850698018</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.315620414372613</v>
+        <v>0.4080370916966272</v>
       </c>
     </row>
     <row r="24">
@@ -10372,19 +10372,19 @@
         <v>9357</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6017</v>
+        <v>5973</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>13672</v>
+        <v>14258</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3596255522271407</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2312574998448174</v>
+        <v>0.2295815588229044</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5254753089926226</v>
+        <v>0.5479872586105986</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>19</v>
@@ -10393,19 +10393,19 @@
         <v>8724</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>5739</v>
+        <v>5732</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>13008</v>
+        <v>12899</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.310127950296069</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2040038872212739</v>
+        <v>0.2037704228036635</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4624324072137535</v>
+        <v>0.4585343060615896</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>34</v>
@@ -10414,19 +10414,19 @@
         <v>18081</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>13051</v>
+        <v>13237</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>23986</v>
+        <v>23863</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.333911499555592</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2410227395631113</v>
+        <v>0.2444533754407432</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4429771945931578</v>
+        <v>0.4406998354517685</v>
       </c>
     </row>
     <row r="25">
@@ -10443,19 +10443,19 @@
         <v>3125</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1142</v>
+        <v>1273</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>6230</v>
+        <v>6186</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1201059889570113</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0438899135467633</v>
+        <v>0.04894464177865974</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2394677411486592</v>
+        <v>0.2377509717468528</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>15</v>
@@ -10464,19 +10464,19 @@
         <v>6165</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3424</v>
+        <v>3463</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>9291</v>
+        <v>9226</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2191724680748252</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1217082183409376</v>
+        <v>0.1231013358941812</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3302791520455798</v>
+        <v>0.3279944504383054</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>21</v>
@@ -10485,19 +10485,19 @@
         <v>9290</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5929</v>
+        <v>6004</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>13442</v>
+        <v>13780</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1715711218652224</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1095054082872411</v>
+        <v>0.1108741676573356</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2482462261785625</v>
+        <v>0.2544835801452295</v>
       </c>
     </row>
     <row r="26">
@@ -10514,19 +10514,19 @@
         <v>7474</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3950</v>
+        <v>3618</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>12007</v>
+        <v>11865</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2872718157863461</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.151799884686611</v>
+        <v>0.1390580931391356</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4615042868734422</v>
+        <v>0.4560141164489572</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>21</v>
@@ -10535,19 +10535,19 @@
         <v>9995</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>6711</v>
+        <v>6693</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>13836</v>
+        <v>14043</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.3553172242372498</v>
+        <v>0.3553172242372499</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2385711250005174</v>
+        <v>0.2379281869139481</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4918585428873352</v>
+        <v>0.4992095911724103</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>31</v>
@@ -10556,19 +10556,19 @@
         <v>17469</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>12159</v>
+        <v>12733</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>23138</v>
+        <v>23351</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3226214721070738</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2245569441834644</v>
+        <v>0.2351498238645211</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4273114024390812</v>
+        <v>0.4312393786503205</v>
       </c>
     </row>
     <row r="27">
@@ -10585,19 +10585,19 @@
         <v>6062</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2984</v>
+        <v>3070</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>10201</v>
+        <v>10693</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2329966430295018</v>
+        <v>0.2329966430295019</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1146792390482678</v>
+        <v>0.1179988510644904</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.392059749579003</v>
+        <v>0.4109661855790532</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>8</v>
@@ -10606,19 +10606,19 @@
         <v>3246</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1558</v>
+        <v>1480</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>6121</v>
+        <v>5888</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.115382357391856</v>
+        <v>0.1153823573918561</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.05539203362098205</v>
+        <v>0.05262682949674792</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2176033602724616</v>
+        <v>0.2093144517933487</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>17</v>
@@ -10627,19 +10627,19 @@
         <v>9308</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>5545</v>
+        <v>5960</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>14719</v>
+        <v>14183</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1718959064721116</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1024118717296362</v>
+        <v>0.1100634422162035</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2718335117981345</v>
+        <v>0.2619344974442882</v>
       </c>
     </row>
     <row r="28">
@@ -10663,16 +10663,16 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>9835</v>
+        <v>8206</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.04420687166072944</v>
+        <v>0.04420687166072943</v>
       </c>
       <c r="H28" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1762531821688618</v>
+        <v>0.1470540501998348</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>10</v>
@@ -10681,19 +10681,19 @@
         <v>8495</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>4322</v>
+        <v>4467</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>15022</v>
+        <v>16419</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1453882338804393</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07396283820153417</v>
+        <v>0.07644166640143461</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2570876702459872</v>
+        <v>0.2809821932980539</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>12</v>
@@ -10702,19 +10702,19 @@
         <v>10962</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5619</v>
+        <v>5469</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>19970</v>
+        <v>19856</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.09596213810592079</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04918368968431909</v>
+        <v>0.04787401214727327</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1748107893456654</v>
+        <v>0.1738189710945623</v>
       </c>
     </row>
     <row r="29">
@@ -10731,19 +10731,19 @@
         <v>6982</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2281</v>
+        <v>2355</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>16745</v>
+        <v>15199</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.125109956038336</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04088189286290458</v>
+        <v>0.04220845547590946</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3000774565140809</v>
+        <v>0.2723654514745671</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>13</v>
@@ -10752,19 +10752,19 @@
         <v>9655</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>5303</v>
+        <v>5286</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>15786</v>
+        <v>15480</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1652312445470238</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.09074687758126984</v>
+        <v>0.09046318176302227</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2701506484232763</v>
+        <v>0.2649226637766089</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>18</v>
@@ -10773,19 +10773,19 @@
         <v>16636</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>9643</v>
+        <v>9787</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>25916</v>
+        <v>25945</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1456323915080478</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.08440945535958819</v>
+        <v>0.08567761902050847</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2268669557273743</v>
+        <v>0.2271192021161065</v>
       </c>
     </row>
     <row r="30">
@@ -10802,19 +10802,19 @@
         <v>39224</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>30243</v>
+        <v>30369</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>46536</v>
+        <v>46263</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.7029019848598216</v>
+        <v>0.7029019848598215</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5419593733332891</v>
+        <v>0.544209360712693</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.8339383396112388</v>
+        <v>0.8290362058462171</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>44</v>
@@ -10823,19 +10823,19 @@
         <v>34184</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>26631</v>
+        <v>26849</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>40340</v>
+        <v>41173</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.5850175533391441</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4557561297178597</v>
+        <v>0.4594755780835382</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.69035769886988</v>
+        <v>0.7046173382317803</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>75</v>
@@ -10844,19 +10844,19 @@
         <v>73408</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>61871</v>
+        <v>62096</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>83048</v>
+        <v>83063</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.6426029334411988</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.5416047120630952</v>
+        <v>0.5435749424348095</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.7269895577723807</v>
+        <v>0.727120753725272</v>
       </c>
     </row>
     <row r="31">
@@ -10873,19 +10873,19 @@
         <v>7131</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>2923</v>
+        <v>3162</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>15418</v>
+        <v>13844</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.1277811874411131</v>
+        <v>0.127781187441113</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.05238747107500504</v>
+        <v>0.05667033247535035</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2763020941744232</v>
+        <v>0.2480956407024707</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>9</v>
@@ -10894,19 +10894,19 @@
         <v>6098</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>2868</v>
+        <v>2828</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>10821</v>
+        <v>10902</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1043629682333929</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.04908472429127417</v>
+        <v>0.0484040989817751</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1851848119893312</v>
+        <v>0.186566136589584</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>15</v>
@@ -10915,19 +10915,19 @@
         <v>13229</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>7580</v>
+        <v>7802</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>21139</v>
+        <v>21429</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1158025369448327</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.06635614592438241</v>
+        <v>0.06829317640029516</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1850425249153583</v>
+        <v>0.1875859884349686</v>
       </c>
     </row>
     <row r="32">
@@ -10948,19 +10948,19 @@
         <v>3074</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>658</v>
+        <v>571</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>8575</v>
+        <v>7750</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1039914902747235</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02224776516634179</v>
+        <v>0.0193146960113401</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2900756240826167</v>
+        <v>0.2621757831681115</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>6</v>
@@ -10969,19 +10969,19 @@
         <v>4117</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1613</v>
+        <v>1416</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>8227</v>
+        <v>7903</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1217099458610309</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.04770176470622151</v>
+        <v>0.04187779462038698</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.243243324471102</v>
+        <v>0.2336720606539642</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>9</v>
@@ -10990,19 +10990,19 @@
         <v>7191</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>3618</v>
+        <v>3426</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>14020</v>
+        <v>13244</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1134463272411782</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.05707678214662745</v>
+        <v>0.05404816077112475</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2211766520188598</v>
+        <v>0.2089422690891563</v>
       </c>
     </row>
     <row r="33">
@@ -11032,19 +11032,19 @@
         <v>3912</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>1352</v>
+        <v>1447</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>8529</v>
+        <v>8471</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.115655073826282</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.03998521176318479</v>
+        <v>0.04277861036897039</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2521626645962959</v>
+        <v>0.2504435483042733</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>5</v>
@@ -11053,19 +11053,19 @@
         <v>3912</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>1436</v>
+        <v>1559</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>8763</v>
+        <v>9286</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.06171530368684162</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.02266264208236281</v>
+        <v>0.02458797769359004</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1382445515836933</v>
+        <v>0.1464944780189235</v>
       </c>
     </row>
     <row r="34">
@@ -11082,19 +11082,19 @@
         <v>20071</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>13801</v>
+        <v>14143</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>24855</v>
+        <v>24805</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.6789323840630315</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.4668437920839483</v>
+        <v>0.4784126193118298</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.8407895233446195</v>
+        <v>0.8390989478702506</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>28</v>
@@ -11103,19 +11103,19 @@
         <v>22115</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>17062</v>
+        <v>16982</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>27016</v>
+        <v>26216</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.6538523770758677</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.5044365874106845</v>
+        <v>0.5020797941327361</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.7987474716809831</v>
+        <v>0.7750839675435491</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>44</v>
@@ -11124,19 +11124,19 @@
         <v>42187</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>33897</v>
+        <v>34290</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>49080</v>
+        <v>49460</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.6655493114794127</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.5347768239944326</v>
+        <v>0.5409764990886399</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.7743056339393241</v>
+        <v>0.7803034090446047</v>
       </c>
     </row>
     <row r="35">
@@ -11153,19 +11153,19 @@
         <v>6417</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>2752</v>
+        <v>2792</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>12760</v>
+        <v>12381</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.217076125662245</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.09307811839817481</v>
+        <v>0.09443042542499772</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.4316338787549187</v>
+        <v>0.4188250789722444</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>5</v>
@@ -11174,19 +11174,19 @@
         <v>3679</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1415</v>
+        <v>1422</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>7650</v>
+        <v>7859</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1087826032368196</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.04184054219097767</v>
+        <v>0.04203315403343345</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.226168264094799</v>
+        <v>0.2323565890324824</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>11</v>
@@ -11195,19 +11195,19 @@
         <v>10097</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>5318</v>
+        <v>5470</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>17097</v>
+        <v>16823</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1592890575925676</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.08390495434205265</v>
+        <v>0.08629494488907109</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2697345024105501</v>
+        <v>0.2654000427893942</v>
       </c>
     </row>
     <row r="36">
@@ -11228,19 +11228,19 @@
         <v>33861</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>23571</v>
+        <v>23504</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>45477</v>
+        <v>46512</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1532007515178424</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1066436414711335</v>
+        <v>0.1063412246143457</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2057547508631796</v>
+        <v>0.2104399273231093</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>73</v>
@@ -11249,19 +11249,19 @@
         <v>42901</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>33764</v>
+        <v>33427</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>53092</v>
+        <v>53221</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1847737360606194</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1454227086088456</v>
+        <v>0.1439694484624117</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2286675902005628</v>
+        <v>0.2292229663175005</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>113</v>
@@ -11270,19 +11270,19 @@
         <v>76762</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>62799</v>
+        <v>62304</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>93278</v>
+        <v>91961</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.1693758866814272</v>
+        <v>0.1693758866814273</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1385661704445633</v>
+        <v>0.1374737962490031</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2058205367041098</v>
+        <v>0.2029136997489991</v>
       </c>
     </row>
     <row r="37">
@@ -11299,19 +11299,19 @@
         <v>18847</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>11812</v>
+        <v>11409</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>30874</v>
+        <v>30213</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.08526971281777303</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.05344117735633263</v>
+        <v>0.05161680792172803</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1396878547870321</v>
+        <v>0.1366979692729175</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>64</v>
@@ -11320,19 +11320,19 @@
         <v>42255</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>32450</v>
+        <v>32492</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>53367</v>
+        <v>52818</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1819907115133192</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1397618249107318</v>
+        <v>0.1399433815853128</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2298497208102328</v>
+        <v>0.2274874451206909</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>84</v>
@@ -11341,19 +11341,19 @@
         <v>61101</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>48279</v>
+        <v>49329</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>75868</v>
+        <v>77034</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.1348207847139925</v>
+        <v>0.1348207847139926</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1065293528153712</v>
+        <v>0.1088463010599489</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1674040507758118</v>
+        <v>0.1699762688795675</v>
       </c>
     </row>
     <row r="38">
@@ -11370,19 +11370,19 @@
         <v>132316</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>117155</v>
+        <v>116016</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>148058</v>
+        <v>148392</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.5986508241173486</v>
+        <v>0.5986508241173487</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.5300567223033462</v>
+        <v>0.5249042444834812</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.6698773122892978</v>
+        <v>0.6713859851094178</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>181</v>
@@ -11391,19 +11391,19 @@
         <v>120111</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>107306</v>
+        <v>106559</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>134976</v>
+        <v>132966</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.5173194707825806</v>
+        <v>0.5173194707825804</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.4621661712979104</v>
+        <v>0.4589487915012882</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.5813431349736726</v>
+        <v>0.5726842390595484</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>297</v>
@@ -11412,19 +11412,19 @@
         <v>252427</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>230445</v>
+        <v>230404</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>270771</v>
+        <v>272885</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.5569840114204124</v>
+        <v>0.5569840114204125</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.5084816416038828</v>
+        <v>0.5083893107531646</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.5974611030245389</v>
+        <v>0.6021244847676025</v>
       </c>
     </row>
     <row r="39">
@@ -11441,19 +11441,19 @@
         <v>36000</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>25650</v>
+        <v>25918</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>50159</v>
+        <v>51069</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.1628787115470358</v>
+        <v>0.1628787115470359</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1160517388288644</v>
+        <v>0.1172636391142142</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2269383484211031</v>
+        <v>0.2310565377963148</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>41</v>
@@ -11462,19 +11462,19 @@
         <v>26913</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>18447</v>
+        <v>19496</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>39086</v>
+        <v>39128</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.1159160816434809</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.07945209617903187</v>
+        <v>0.08397043968260159</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.168345653875251</v>
+        <v>0.1685264713670262</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>77</v>
@@ -11483,19 +11483,19 @@
         <v>62913</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>49392</v>
+        <v>48983</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>79018</v>
+        <v>78981</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.1388193171841677</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.1089846622006456</v>
+        <v>0.1080821222570363</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.1743550545165658</v>
+        <v>0.1742723104973218</v>
       </c>
     </row>
     <row r="40">
